--- a/Microsoft Cloud Security Benchmark/Microsoft_cloud_security_benchmark_v1.xlsx
+++ b/Microsoft Cloud Security Benchmark/Microsoft_cloud_security_benchmark_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/chcheng1_microsoft_com/Documents/Multi-cloud/MCSB_v1_GA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1354" documentId="8_{68EA57A1-B688-4A17-B399-03A3CD93963D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5938FEAD-F80A-4D30-A648-29AA286C69CD}"/>
+  <xr:revisionPtr revIDLastSave="1358" documentId="8_{68EA57A1-B688-4A17-B399-03A3CD93963D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4C83C9D-C987-4727-85F8-92B728147CAD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" tabRatio="786" xr2:uid="{30BFAFB3-652A-4F32-916F-A5B0C74C3635}"/>
   </bookViews>
@@ -228,6 +228,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Create a Virtual Private Cloud (VPC) as a fundamental segmentation approach in your AWS network</t>
     </r>
@@ -237,6 +238,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -245,6 +247,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> so resources such as EC2 instances can be deployed into the VPC within a network boundary. To further segment the network, you can create subnets inside VPC for smaller sub-networks. 
 For EC2 instances, use Security Groups</t>
@@ -255,6 +258,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -263,6 +267,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> as a stateful firewall to restrict traffic by port, protocol, source IP address, or destination IP address. At the VPC subnet level, use Network Access Control List (NACL) as a stateless firewall to have explicit rules for ingress and egress traffic to the subnet. 
 Note: To control VPC traffic, Internet and NAT Gateway should be configured to ensure the traffic from/to the internet are restricted. </t>
@@ -2121,6 +2126,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Use AWS Macie to monitor the data that has been classified and labeled, and use GuardDuty to detect anomalous activities on some resources (S3, EC2 or Kubernetes or IAM resources). Findings and alerts can be triaged, analyzed, and tracked using EventBridge and forwarded to Microsoft Sentinel or Security Hub for incident aggregation and tracking. 
@@ -2132,6 +2138,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>-</t>
@@ -2141,6 +2148,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>based DLP solution from AWS Marketplace.</t>
@@ -2799,6 +2807,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Set up security incident contact information in Microsoft Defender for Cloud. This contact information is used by Microsoft to contact you if the Microsoft Security Response Center (MSRC) discovers that your data has been accessed by an unlawful or unauthorized party. You also have options to customize incident alert</t>
@@ -2808,6 +2817,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>s</t>
@@ -2817,6 +2827,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> and notification in different Azure services based on your incident response needs.</t>
@@ -4419,6 +4430,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Follow recommendations in Microsoft Defender for Cloud to keep all</t>
@@ -4437,6 +4449,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>up to date with the latest signatures. Microsoft Antimalware (for Windows) and Microsoft Defender for Endpoint (for Linux) will automatically install the latest signatures and engine updates by default. 
@@ -4449,6 +4462,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>With your AWS account onboarded into Microsoft Defender for Cloud, follow recommendations in Microsoft Defender for Cloud to keep all endpoints</t>
@@ -4458,6 +4472,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -4467,6 +4482,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>up to date with the latest signatures. Microsoft Antimalware (for Windows) and Microsoft Defender for Endpoint (for Linux) will automatically install the latest signatures and engine updates by default. 
@@ -4479,6 +4495,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Microsoft Defender for Cloud can automatically identify the use of a number of popular anti-malware solutions for your virtual machines and on-premises machines with Azure Arc configured and report the endpoint protection </t>
@@ -4497,6 +4514,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">status and make recommendations.
@@ -4511,6 +4529,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Use Azure Automation Update Management or a third-party solution to ensure that the most recent security updates are installed on your Windows and Linux VMs. For Windows VMs, ensure Windows Update has been enabled and set to update automatically.
@@ -4531,6 +4550,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -4543,6 +4563,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Use AWS Systems Manager - Patch Manager to ensure that the most recent security updates are installed on your operating systems and applications. Patch Manager supports patch baselines to allow you to define a list of approved and rejected patches for your systems.
@@ -4577,6 +4598,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Use Azure managed identities</t>
@@ -4587,6 +4609,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>,</t>
@@ -4596,6 +4619,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> which can authenticate to Azure services and resources that support Azure AD authentication. Managed identity credentials are fully managed, rotated, and protected by the platform, avoiding hard-coded credentials in source code or configuration files. 
@@ -4743,6 +4767,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -4755,6 +4780,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Use Azure Firewall to provide fully stateful application layer traffic restriction (such as URL filtering) and/or central management over a large number of enterprise segments or spokes (in a hub/spoke topology).  
@@ -4774,6 +4800,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> option to use an UDR to redirect egress internet traffic through a specific Azure Firewall or a network virtual appliance.</t>
@@ -4785,6 +4812,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Use Azure Firewall’s IDPS capability to protect your virtual network to alert on and/or block traffic to and from known malicious IP addresses and domains. 
 For more in-depth host</t>
@@ -4794,6 +4822,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -4802,6 +4831,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>level detection and prevention</t>
     </r>
@@ -4810,6 +4840,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4826,6 +4857,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, deploy host-based IDS/IPS or a host-based endpoint detection and response (EDR) solution, such as Microsoft Defender for Endpoint, at the VM level in conjunction with the network IDS/IPS. 
 </t>
@@ -4837,6 +4869,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>AWS Shield Standard is automatically enabled with standard mitigations</t>
@@ -4847,6 +4880,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>,</t>
@@ -4856,6 +4890,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> to protect your workload from common network and transport layer (Layer 3 and 4) DDoS attacks 
@@ -4885,6 +4920,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -4894,6 +4930,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">DNS floods, enable AWS Shield Advanced protection on Amazon EC2, Elastic Load Balancing (ELB), Amazon CloudFront, AWS Global Accelerator, and Amazon Route 53. </t>
@@ -4969,6 +5006,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Use the following features to simplify the implementation and management of the virtual network, NSG rules, and Azure Firewall rules: 
@@ -4990,6 +5028,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -4999,6 +5038,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>template.</t>
@@ -5071,6 +5111,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use the following security best practices to secure your AWS IAM:
 - Set up AWS account root user access keys for emergency access as described in PA-5 (Set up emergency access)
@@ -5095,6 +5136,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5103,6 +5145,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Azure AD security baseline if you use Azure AD to manage AWS identity and access. 
 </t>
@@ -5193,6 +5236,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Many AWS services support TLS authentication by default. For </t>
@@ -5211,6 +5255,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>always enabled to support the server/</t>
@@ -5229,6 +5274,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> authentication. Your client application should also be designed to verify server/</t>
@@ -5247,6 +5293,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> identity (by verifying the server’s certificate issued by a trusted certificate authority) in the handshake stage.
@@ -5676,6 +5723,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Enforce secure transfer in services such as Amazon S3, RDS and CloudFront, where a native data in transit encryption feature is built in. 
@@ -5716,6 +5764,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -5726,6 +5775,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">a </t>
@@ -5735,6 +5785,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">regular FTP service. 
@@ -5816,6 +5867,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use AWS Key Management Service (KMS) to create and control your encryption keys life cycle, including key generation, distribution, and storage. Rotate and revoke your keys in KMS and your service based on the defined schedule and when there is a key retirement or compromise.
 When there is a need to use customer-managed customer master key in the workload services or applications, ensure you follow the best practices:
@@ -5836,6 +5888,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> key material lifetime and portability</t>
     </r>
@@ -5852,6 +5905,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Note: AWS KMS uses shared HSM infrastructure in the backend. Use AWS KMS Custom Key Store backed by AWS CloudHSM when you need to manage your own key store and dedicated HSMs (e.g. regulatory compliance requirement for higher level of key security) to generate and store your encryption keys.
@@ -5987,72 +6041,6 @@
 You can also use a third-party solution to discover and identify unapproved software.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Use AWS IAM to restrict access to a specific resource</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>You can specify allow</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or deny actionsas well as the conditions under which actions are triggered. You may specify one condition or combine methods of resource-level permissions, resource-based policies, tag-based authorization, temporary crede</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ntials, or service-linked roles to have a fine-grain control access control for your resources. </t>
-    </r>
-  </si>
-  <si>
     <t>How to configure Conditional Access to block access to Azure Resources Manager: 
 https://docs.microsoft.com/azure/role-based-access-control/conditional-access-azure-management
 Lock your resources to protect your infrastructure:
@@ -6207,6 +6195,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Azure AD provides the following logs that can be viewed in Azure AD reporting or integrated with Azure Monitor, Microsoft Sentinel or other SIEM/monitoring tools for more sophisticated monitoring and analytics use cases:
@@ -6230,6 +6219,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> risks include leaked credentials, sign-in from anonymous or malware linked IP addresses, password spray. The policies in Azure AD Identity Protection allow you to enforce risk-based MFA authentication in conjunction with Azure Conditional Access on user accounts.
@@ -6324,10 +6314,6 @@
 If you use Microsoft Defender for Cloud to monitor your AWS accounts, you can also use Microsoft Sentinel to monitor and alert the incidents identified by Microsoft Defender for Cloud on AWS resources.</t>
   </si>
   <si>
-    <t>Microsoft Defender for Cloud assigns a severity to each alert to help you prioritize which alerts should be investigated first. The severity is based on how confident Microsoft Defender for Cloud is in the finding or the analytics used to issue the alert, as well as the confidence level that there was malicious intent behind the activity that led to the alert.
-Similiarly, Microsoft Sentinel creates alerts and incidents with an assigned severity and other details based on analytics rules. Use analytic rule templates and customize the rules according to your organization's needs to support incident prioritization. Use automation rules in Microsoft Sentinel to manage and orchestrate threat response in order to maximize your security operation's team efficiency and effectiveness, including tagging incidents to classify them.</t>
-  </si>
-  <si>
     <t>Security alerts in Microsoft Defender for Cloud:
 https://docs.microsoft.com/azure/security-center/security-center-alerts-overview
 Use tags to organize your Azure resources:
@@ -6541,12 +6527,161 @@
 Note: Azure Marketplace VM images published by Microsoft are managed and maintained by Microsoft.</t>
   </si>
   <si>
-    <t xml:space="preserve">Use AWS System Manager's State Manager feature to regularly assess and remediate configuration deviations on your EC2 instances. In addition, you can use CloudFormation templates, custom operating system images to maintain the security configuration of the operating system. AMI templates in conjunction with Systems Manager can assist in meeting and maintaining security requirements.
-You can also centrally monitor and manage the operating system configuration drift through Azure Automation State Configuration and onboard the applicable resources to Azure security governance using the following methods :
-- Onboard your AWS account into Microsoft Defender for Cloud 
-- Use Azure Arc for servers to connet your EC2 instances to Microsoft Defender for Cloud
-For workload applications running within your EC2 instances, AWS Lambda or containers environment, you may use AWS System Manager AppConfig to audit and enforce the desired configuration baseline.
-Note: AMIs published by Amazon Web Services in AWS Marketplace are managed and maintained by Amazon Web Services. </t>
+    <t>Use Amazon Inspector to scan your Amazon EC2 instances and container images residing in Amazon Elastic Container Registry (Amazon ECR) for software vulnerabilities and unintended network exposure. Use a third-party solution for performing vulnerability assessments on network devices and applications (e.g., web applications)
+Refer to control ES-1, "Use Endpoint Detection and Response (EDR)", to onboard your AWS account into Microsoft Defender for Cloud and deploy Microsoft Defender for servers (with Microsoft Defender for Endpoint integrated) in your EC2 instances. Microsoft Defender for servers provides a native threat and vulnerability management capability for your VMs. The vulnerability scanning result will be consolidated in the Microsoft Defender for Cloud dashboard. 
+Track the status of vulnerability findings to ensure they are properly remediated or suppressed if they're considered false positive.
+When conducting remote scans, do not use a single, perpetual, administrative account. Consider implementing a temporary provisioning methodology for the scan account. Credentials for the scan account should be protected, monitored, and used only for vulnerability scanning.</t>
+  </si>
+  <si>
+    <t>Onboard your AWS account into Microsoft Defender for Cloud and deploy Microsoft Defender for servers (with Microsoft Defender for Endpoint integrated) on your EC2 instances to provide EDR capabilities to prevent, detect, investigate, and respond to advanced threats. 
+Alternatively, use Amazon GuardDuty integrated threat intelligence capability to monitor and protect your EC2 instances. Amazon GuardDuty can detect anomalous activities such as activity indicating an instance compromise, such as cryptocurrency mining, malware using domain generation algorithms (DGAs), outbound denial of service activity, unusually high volume of network traffic, unusual network protocols, outbound instance communication with a known malicious IP, temporary Amazon EC2 credentials use by an external IP address, and data exfiltration using DNS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onboard your AWS account into Microsoft Defender for Cloud to allow Microsoft Defender for Cloud to automatically identify the use some popular anti-malware solutions for EC2 instances with Azure Arc configured and report the endpoint protection running status and make recommendations. 
+Deploy Microsoft Defender Antivirus which is the default anti-malware solution for Windows server 2016 and above. For EC2 instances running Windows server 2012 R2, use Microsoft Antimalware extension to enable SCEP (System Center Endpoint Protection). For EC2 instances running Linux, use Microsoft Defender for Endpoint on Linux for the endpoint protection feature. 
+For both Windows and Linux, you can use Microsoft Defender for Cloud to discover and assess the health status of the anti-malware solution. 
+Note: Microsoft Defender Cloud also supports certain third-party endpoint protection products for the discovery and health status assessment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Azure Backup supported resources (such as Azure VMs, SQL Server, HANA databases, Azure PostgreSQL Database, File Shares, Blobs or Disks), enable Azure Backup and configure the desired frequency and retention period. For Azure VM, you can use Azure Policy to have backup automatically enabled using Azure Policy. 
+For resources or services not supported by Azure Backup, use the native backup capability provided by the resource or service. For example, Azure Key Vault provides a native backup capability. 
+For resources/services that are neither supported by Azure Backup nor have a native backup capability, evaluate your backup and disaster needs, and create your own mechanism as per your business requirements. For example: 
+- If you use Azure Storage for data storage, enable blob versioning for your storage blobs which will allow you to preserve, retrieve, and restore every version of every object stored in your Azure Storage. 
+- Service configuration settings can usually be exported to Azure Resource Manager templates. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For AWS Backup supported resources (such as EC2, S3, EBS or RDS), enable AWS Backup and configure the desired frequency and retention period. 
+For resources/services not supported by AWS Backup, such as AWS KMS, enable the native backup feature as part of its resource creation. 
+For resources/services that are neither supported by AWS Backup nor have a native backup capability, evaluate your backup and disaster needs, and create your own mechanism as per your business requirements. For example:
+- If Amazon S3 is used for data storage, enable S3 versioning for your storage backet which will allow you to preserve, retrieve, and restore every version of every object stored in your S3 bucket. 
+- Service configuration settings can usually be exported to CloudFormation templates. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use multi-factor-authentication and Azure RBAC to secure the critical Azure Backup operations (such as delete, change retention, updates to backup config). For Azure Backup supported resources, use Azure RBAC to segregate duties and enable fine grained access, and create private endpoints within your Azure Virtual Network to securely backup and restore data from your Recovery Services vaults.
+For Azure Backup supported resources, backup data is automatically encrypted using Azure platform-managed keys with 256-bit AES encryption. You can also choose to encrypt the backups using a customer managed key. In this case, ensure the customer-managed key in the Azure Key Vault is also in the backup scope. If you use a customer-managed key, use soft delete and purge protection in Azure Key Vault to protect keys from accidental or malicious deletion. For on-premises backups using Azure Backup, encryption-at-rest is provided using the passphrase you provide. 
+Safeguard backup data from accidental or malicious deletion, such as ransomware attacks/attempts to encrypt or tamper backup data. For Azure Backup supported resources, enable soft delete to ensure recovery of items with no data loss for up to 14 days after an unauthorized deletion, and enable multifactor authentication using a PIN generated in the Azure portal. Also enable geo-redundant storage or cross-region restoration to ensure backup data is restorable when there is a disaster in primary region. You can also enable Zone-redundant Storage (ZRS) to ensure backups are restorable during zonal failures.
+Note: If you use a resource's native backup feature or backup services other than Azure Backup, refer to the Microsoft Cloud Security Benchmark (and service baselines) to implement the above controls. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use AWS IAM access control to secure AWS Backup. This includes securing the AWS Backup service access and backup and restore points. Example controls include:
+- Use multi-factor authentication (MFA) for critical operations such as deletion of a backup/restore point.
+- Use Secure Sockets Layer (SSL)/Transport Layer Security (TLS) to communicate with AWS resources.
+- Use AWS KMS in conjunction with AWS Backup to encrypt the backup data either using customer-managed CMK or an AWS-managed CMK associated with the AWS Backup service.
+- Use AWS Backup Vault Lock for immutable storage of critical data. 
+- Secure S3 buckets through access policy, disabling public access, enforcing data at-rest encryption, and versioning control. </t>
+  </si>
+  <si>
+    <t>Periodically perform data recovery tests of your backup to verify that the backup configurations and availability of the backup data meets the recovery needs as defined in the RTO and RPO.
+You may need to define your backup recovery test strategy, including the test scope, frequency and method as performing the full recovery test each time can be difficult.</t>
+  </si>
+  <si>
+    <t>Use threat modeling tools such as the Microsoft threat modeling tool with the Azure threat model template embedded to drive your threat modeling process. Use the STRIDE model to enumerate the  threats from both internal and external and identify the controls applicable. Ensure the threat modeling process includes the threat scenarios in the DevOps process, such as malicious code injection through an insecure artifacts repository with misconfigured access control policy.
+If using a threat modeling tool is not applicable, you should, at minimum, use a questionnaire-based threat modeling process to identify the threats.
+Ensure the threat modeling or analysis results are recorded and updated when there is a major security-impact change in your application or in the threat landscape.</t>
+  </si>
+  <si>
+    <t>Use threat modeling tools such as the Microsoft threat modeling tool with the Azure threat model template embedded to drive your threat modeling process. Use the STRIDE model to enumerate the threats from both internal and external and identify the controls applicable. Ensure the threat modeling process includes the threat scenarios in the DevOps process, such as malicious code injection through an insecure artifacts repository with misconfigured access control policy.
+If using a threat modeling tool is not applicable, you should, at minimum, use a questionnaire-based threat modeling process to identify the threats.
+Ensure the threat modeling or analysis results are recorded and updated when there is a major security-impact change in your application or in the threat landscape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the GitHub platform, ensure the software supply chain security through the following capability or tools from GitHub Advanced Security or GitHub’s native feature:- Use Dependency Graph to scan, inventory and identify all your project’s dependencies and related vulnerabilities through Advisory Database.
+- Use Dependabot to ensure that the vulnerable dependency is tracked and remediated, and ensure your repository automatically keeps up with the latest releases of the packages and applications it depends on.
+- Use GitHub's native code scanning capability to scan the source code when sourcing the code externally.
+- Use Microsoft Defender for Cloud to integrate vulnerability assessment for your container image in the CI/CD workflow.
+For Azure DevOps, you can use third-party extensions to implement similar controls to inventory, analyze and remediate the third-party software components and their vulnerabilities
+</t>
+  </si>
+  <si>
+    <t>If you use AWS CI/CD platforms such as CodeCommit or CodePipeline, ensure the software supply chain security using CodeGuru Reviewer to scan the source code (for Java and Python) through the CI/CD workflows. Platforms such as CodeCommit and CodePipeline also supports third-party extensions to implement similar controls to inventory, analyze and remediate the third-party software components and their vulnerabilities.
+If you manage your source code through the GitHub platform, ensure the software supply chain security through the following capability or tools from GitHub Advanced Security or GitHub’s native feature:
+- Use Dependency Graph to scan, inventory and identify all your project’s dependencies and related vulnerabilities through Advisory Database.
+- Use Dependabot to ensure that the vulnerable dependency is tracked and remediated, and ensure your repository automatically keeps up with the latest releases of the packages and applications it depends on.
+- Use GitHub's native code scanning capability to scan the source code when sourcing the code externally.
+- If applicable, use Microsoft Defender for Cloud to integrate vulnerability assessment for your container image in the CI/CD workflow.</t>
+  </si>
+  <si>
+    <t>As part of applying the Microsoft Cloud Security Benchmark to your DevOps infrastructure security controls, prioritize the following controls:
+- Protect artifacts and the underlying environment to ensure the CI/CD pipelines don’t become avenues to insert malicious code. For example, review your CI/CD pipeline to identify any misconfiguration in core areas of Azure DevOps such as Organization, Projects, Users, Pipelines (Build &amp; Release), Connections, and Build Agent to identify any misconfigurations such as open access, weak authentication, insecure connection setup and so on. For GitHub, use similar controls to secure the Organization permission levels. 
+- Ensure your DevOps infrastructure is deployed consistently across development projects. Track compliance of your DevOps infrastructure at scale by using Microsoft Defender for Cloud (such as Compliance Dashboard, Azure Policy, Cloud Posture Management) or your own compliance monitoring tools. 
+- Configure identity/role permissions and entitlement policies in Azure AD, native services, and CI/CD tools in your pipeline to ensure changes to the pipelines are authorized.
+- Avoid providing permanent “standing” privileged access to the human accounts such as developers or testers by using features such as Azure managed identifies and just-in-time access.
+- Remove keys, credentials, and secrets from code and scripts used in CI/CD workflow jobs and keep them in a key store or Azure Key Vault. 
+- If you run self-hosted build/deployment agents, follow Microsoft Cloud Security Benchmark controls including network security, posture and vulnerability management, and endpoint security to secure your environment.
+Note: Refer to the Logging and Threat Detection, DS-7, and the Posture and Vulnerability Management sections to use services such as Azure Monitor and Microsoft Sentinel to enable governance, compliance, operational auditing, and risk auditing for your DevOps infrastructure.</t>
+  </si>
+  <si>
+    <t>As part of applying the Microsoft Cloud Security Benchmark to the security controls of your DevOps infrastructure, such as GitHub, CodeCommit, CodeArtifact, CodePipeline, CodeBuild and CodeDeploy, prioritize the following controls: 
+- Refer to this guidance and the AWS Well-architected Framework security pillar to secure your DevOps environments in AWS.
+- Protect artifacts and the underlying supporting infrastructure to ensure the CI/CD pipelines don’t become avenues to insert malicious code. 
+- Ensure your DevOps infrastructure is deployed and sustained consistently across development projects. Track compliance of your DevOps infrastructure at scale by using AWS Config or your own compliance check solution. 
+- Use CodeArtifact to securely store and share software packages used for application development. You can use CodeArtifact with popular build tools and package managers such as Maven, Gradle, npm, yarn, pip, and twine.
+- Configure identity/role permissions and permission policies in AWS IAM, native services, and CI/CD tools in your pipeline to ensure changes to the pipelines are authorized. 
+- Remove keys, credentials, and secrets from code and scripts used in CI/CD workflow jobs and keep them in key store or AWS KMS
+- If you run self-hosted build/deployment agents, follow Microsoft Cloud Security Benchmark controls including network security, posture and vulnerability management, and endpoint security to secure your environment. Use AWS Inspector for vulnerability scanning for vulnerabilities in EC2 or containerized environment as the build environment. 
+Note: Refer to the Logging and Threat Detection, DS-7, and the and Posture and Vulnerability Management sections to use services such as AWS CloudTrail, CloudWatch and Microsoft Sentinel to enable governance, compliance, operational auditing, and risk auditing for your DevOps infrastructure.</t>
+  </si>
+  <si>
+    <t>Integrate SAST into your pipeline (e.g., in your infrastructure as code template) so the source code can be scanned automatically in your CI/CD workflow. Azure DevOps Pipeline or GitHub can integrate the  below tools and third-party SAST tools into the workflow. 
+- GitHub CodeQL for source code analysis.
+- Microsoft BinSkim Binary Analyzer for Windows and *nix binary analysis.
+- Azure DevOps Credential Scanner (Microsoft Security DevOps extension) and GitHub native secret scanning for credential scan in the source code.</t>
+  </si>
+  <si>
+    <t>Integrate SAST into your pipeline so the source code can be scanned automatically in your CI/CD workflow.
+If using AWS CodeCommit, use AWS CodeGuru Reviewer for Python and Java source code analysis. AWS Codepipeline can also support integration of third-part SAST tools into the code deployment pipeline. 
+If using GitHub, the below tools and third-party SAST tools can be integrated into the workflow. 
+- GitHub CodeQL for source code analysis.
+- Microsoft BinSkim Binary Analyzer for Windows and *nix binary analysis.
+- GitHub native secret scanning for credential scan in the source code. 
+- AWS CodeGuru Reviewer for Python and Java source code analysis.</t>
+  </si>
+  <si>
+    <t>Integrate DAST into your pipeline so the runtime application can be tested automatically in your CI/CD workflow set in Azure DevOps or GitHub. The automated penetration testing (with manual assisted validation) should also be part of the DAST. 
+Azure DevOps Pipeline or GitHub supports the integration of third-party DAST tools into the CI/CD workflow.</t>
+  </si>
+  <si>
+    <t>Integrate DAST into your pipeline so the runtime application can be tested automatically in your CI/CD workflow set in AWS CodePipeline or GitHub. The automated penetration testing (with manual assisted validation) should also be part of the DAST. 
+AWS CodePipeline or GitHub supports integration of third-party DAST tools into the CI/CD workflow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidance for Azure VMs:
+- Use Azure Shared Image Gallery to share and control access to your images by different users, service principals, or AD groups within your organization. Use Azure role-based access control (Azure RBAC) to ensure that only authorized users can access your custom images. 
+- Define the secure configuration baselines for the VMs to eliminate unnecessary credentials, permissions, and packages. Deploy and enforce configuration baselines through custom images, Azure Resource Manager templates, and/or Azure Policy guest configuration.
+Guidance for Azure container services: 
+- Use Azure Container Registry (ACR) to create your private container registry where granular access can be restricted through Azure RBAC, so only authorized services and accounts can access the containers in the private registry. 
+- Use Defender for Containers for vulnerability assessment of the images in your private Azure Container Registry. In addition, you can use Microsoft Defender for Cloud to integrate the container image scans as part of your CI/CD workflows. 
+For Azure serverless services, adopt similar controls to ensure security controls "shift-left" to the stage prior to deployment.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Amazon Elastic Container Registry to share and control access to your images by different users and roles within your organization. And Use AWS IAM to ensure that only authorized users can access your custom images. 
+Define the secure configuration baselines for the EC2 AMI images to eliminate unnecessary credentials, permissions, and packages. Deploy and enforce configurations baselines through custom AMI images, CloudFormation templates, and/or AWS Config Rules.
+Use AWS Inspector for vulnerability scanning of VM's and Containerized environments, securing them from malicious manipulation. 
+For AWS serverless services, use AWS CodePipeline in conjunction with AWS AppConfig to adopt similar controls to ensure security controls "shift left" to the stage prior to deployment.  </t>
+  </si>
+  <si>
+    <t>Establish a policy, procedure and standard to ensure the security configuration management and vulnerability management are in place in your cloud security mandate.
+The security configuration management in cloud should include the following areas:
+- Define the secure configuration baselines for different resource types in the cloud, such as the web portal/console, management and control plane, and resources running in the IaaS, PaaS and SaaS services.
+- Ensure the security baselines address the risks in different control areas such as network security, identity management, privileged access, data protection and so on. 
+- Use tools to continuously measure, audit, and enforce the configuration to prevent configuration deviating from the baseline.
+- Develop a cadence to stay updated with security features, for instance, subscribe to the service updates. 
+- Utilize a security health or compliance check mechanism (such as Secure Score, Compliance Dashboard in Microsoft Defender for Cloud) to regularly review security configuration posture and remediate the gaps identified.
+The vulnerability management in the cloud should include the following security aspects:
+- Regularly assess and remediate vulnerabilities in all cloud resource types, such as cloud native services, operating systems, and application components. 
+- Use a risk-based approach to prioritize assessment and remediation. 
+- Subscribe to the relevant CSPM's security advisory notices and blogs to receive the latest security updates. 
+- Ensure the vulnerability assessment and remediation (such as schedule, scope, and techniques) meet the regularly compliance requirements for your organization.</t>
+  </si>
+  <si>
+    <t>Enable and configure the audit logging capabilities in non-production and CI/CD tooling environments (such as Azure DevOps and GitHub) used throughout the DevOps process. 
+The events generated from Azure DevOps and the GitHub CI/CD workflow, including the build, test and deployment jobs, should also be monitored to identify any anomalous results.
+Ingest the above logs and events into Microsoft Sentinel or other SIEM tools through a logging stream or API to ensure the security incidents are properly monitored and triaged for handling.</t>
+  </si>
+  <si>
+    <t>Enable and configure AWS CloudTrail for audit logging capabilities in non-production and CI/CD tooling environments (such as AWS CodePipeline, AWS CodeBuild, AWS CodeDeploy, AWS CodeStar) used throughout the DevOps process. 
+The events generated from the AWS CI/CD environments (such as AWS CodePipeline, AWS CodeBuild, AWS CodeDeploy, AWS CodeStar) and the GitHub CI/CD workflow, including the build, test and deployment jobs, should also be monitored to identify any anomalous results.
+Ingest the above logs and events into AWS CloudWatch, Microsoft Sentinel or other SIEM tools through a logging stream or API to ensure the security incidents are properly monitored and triaged for handling.</t>
   </si>
   <si>
     <t>How to implement Microsoft Defender for Cloud vulnerability assessment recommendations:
@@ -6561,172 +6696,97 @@
 https://docs.microsoft.com/azure/security-center/container-security
 Change Tracking and Inventory overview:
 https://learn.microsoft.com/azure/automation/change-tracking/overview?tabs=python-2
-Guest attestation for confidental VMs:
+Guest attestation for confidential VMs:
 https://learn.microsoft.com/azure/confidential-computing/guest-attestation-confidential-vms</t>
   </si>
   <si>
-    <t>Use Amazon Inspector to scan your Amazon EC2 instances and container images residing in Amazon Elastic Container Registry (Amazon ECR) for software vulnerabilities and unintended network exposure. Use a third-party solution for performing vulnerability assessments on network devices and applications (e.g., web applications)
-Refer to control ES-1, "Use Endpoint Detection and Response (EDR)", to onboard your AWS account into Microsoft Defender for Cloud and deploy Microsoft Defender for servers (with Microsoft Defender for Endpoint integrated) in your EC2 instances. Microsoft Defender for servers provides a native threat and vulnerability management capability for your VMs. The vulnerability scanning result will be consolidated in the Microsoft Defender for Cloud dashboard. 
-Track the status of vulnerability findings to ensure they are properly remediated or suppressed if they're considered false positive.
-When conducting remote scans, do not use a single, perpetual, administrative account. Consider implementing a temporary provisioning methodology for the scan account. Credentials for the scan account should be protected, monitored, and used only for vulnerability scanning.</t>
-  </si>
-  <si>
-    <t>Onboard your AWS account into Microsoft Defender for Cloud and deploy Microsoft Defender for servers (with Microsoft Defender for Endpoint integrated) on your EC2 instances to provide EDR capabilities to prevent, detect, investigate, and respond to advanced threats. 
-Alternatively, use Amazon GuardDuty integrated threat intelligence capability to monitor and protect your EC2 instances. Amazon GuardDuty can detect anomalous activities such as activity indicating an instance compromise, such as cryptocurrency mining, malware using domain generation algorithms (DGAs), outbound denial of service activity, unusually high volume of network traffic, unusual network protocols, outbound instance communication with a known malicious IP, temporary Amazon EC2 credentials use by an external IP address, and data exfiltration using DNS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onboard your AWS account into Microsoft Defender for Cloud to allow Microsoft Defender for Cloud to automatically identify the use some popular anti-malware solutions for EC2 instances with Azure Arc configured and report the endpoint protection running status and make recommendations. 
-Deploy Microsoft Defender Antivirus which is the default anti-malware solution for Windows server 2016 and above. For EC2 instances running Windows server 2012 R2, use Microsoft Antimalware extension to enable SCEP (System Center Endpoint Protection). For EC2 instances running Linux, use Microsoft Defender for Endpoint on Linux for the endpoint protection feature. 
-For both Windows and Linux, you can use Microsoft Defender for Cloud to discover and assess the health status of the anti-malware solution. 
-Note: Microsoft Defender Cloud also supports certain third-party endpoint protection products for the discovery and health status assessment. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Azure Backup supported resources (such as Azure VMs, SQL Server, HANA databases, Azure PostgreSQL Database, File Shares, Blobs or Disks), enable Azure Backup and configure the desired frequency and retention period. For Azure VM, you can use Azure Policy to have backup automatically enabled using Azure Policy. 
-For resources or services not supported by Azure Backup, use the native backup capability provided by the resource or service. For example, Azure Key Vault provides a native backup capability. 
-For resources/services that are neither supported by Azure Backup nor have a native backup capability, evaluate your backup and disaster needs, and create your own mechanism as per your business requirements. For example: 
-- If you use Azure Storage for data storage, enable blob versioning for your storage blobs which will allow you to preserve, retrieve, and restore every version of every object stored in your Azure Storage. 
-- Service configuration settings can usually be exported to Azure Resource Manager templates. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For AWS Backup supported resources (such as EC2, S3, EBS or RDS), enable AWS Backup and configure the desired frequency and retention period. 
-For resources/services not supported by AWS Backup, such as AWS KMS, enable the native backup feature as part of its resource creation. 
-For resources/services that are neither supported by AWS Backup nor have a native backup capability, evaluate your backup and disaster needs, and create your own mechanism as per your business requirements. For example:
-- If Amazon S3 is used for data storage, enable S3 versioning for your storage backet which will allow you to preserve, retrieve, and restore every version of every object stored in your S3 bucket. 
-- Service configuration settings can usually be exported to CloudFormation templates. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use multi-factor-authentication and Azure RBAC to secure the critical Azure Backup operations (such as delete, change retention, updates to backup config). For Azure Backup supported resources, use Azure RBAC to segregate duties and enable fine grained access, and create private endpoints within your Azure Virtual Network to securely backup and restore data from your Recovery Services vaults.
-For Azure Backup supported resources, backup data is automatically encrypted using Azure platform-managed keys with 256-bit AES encryption. You can also choose to encrypt the backups using a customer managed key. In this case, ensure the customer-managed key in the Azure Key Vault is also in the backup scope. If you use a customer-managed key, use soft delete and purge protection in Azure Key Vault to protect keys from accidental or malicious deletion. For on-premises backups using Azure Backup, encryption-at-rest is provided using the passphrase you provide. 
-Safeguard backup data from accidental or malicious deletion, such as ransomware attacks/attempts to encrypt or tamper backup data. For Azure Backup supported resources, enable soft delete to ensure recovery of items with no data loss for up to 14 days after an unauthorized deletion, and enable multifactor authentication using a PIN generated in the Azure portal. Also enable geo-redundant storage or cross-region restoration to ensure backup data is restorable when there is a disaster in primary region. You can also enable Zone-redundant Storage (ZRS) to ensure backups are restorable during zonal failures.
-Note: If you use a resource's native backup feature or backup services other than Azure Backup, refer to the Microsoft Cloud Security Benchmark (and service baselines) to implement the above controls. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use AWS IAM access control to secure AWS Backup. This includes securing the AWS Backup service access and backup and restore points. Example controls include:
-- Use multi-factor authentication (MFA) for critical operations such as deletion of a backup/restore point.
-- Use Secure Sockets Layer (SSL)/Transport Layer Security (TLS) to communicate with AWS resources.
-- Use AWS KMS in conjunction with AWS Backup to encrypt the backup data either using customer-managed CMK or an AWS-managed CMK associated with the AWS Backup service.
-- Use AWS Backup Vault Lock for immutable storage of critical data. 
-- Secure S3 buckets through access policy, disabling public access, enforcing data at-rest encryption, and versioning control. </t>
-  </si>
-  <si>
-    <t>Periodically perform data recovery tests of your backup to verify that the backup configurations and availability of the backup data meets the recovery needs as defined in the RTO and RPO.
-You may need to define your backup recovery test strategy, including the test scope, frequency and method as performing the full recovery test each time can be difficult.</t>
-  </si>
-  <si>
-    <t>Use threat modeling tools such as the Microsoft threat modeling tool with the Azure threat model template embedded to drive your threat modeling process. Use the STRIDE model to enumerate the  threats from both internal and external and identify the controls applicable. Ensure the threat modeling process includes the threat scenarios in the DevOps process, such as malicious code injection through an insecure artifacts repository with misconfigured access control policy.
-If using a threat modeling tool is not applicable, you should, at minimum, use a questionnaire-based threat modeling process to identify the threats.
-Ensure the threat modeling or analysis results are recorded and updated when there is a major security-impact change in your application or in the threat landscape.</t>
-  </si>
-  <si>
-    <t>Use threat modeling tools such as the Microsoft threat modeling tool with the Azure threat model template embedded to drive your threat modeling process. Use the STRIDE model to enumerate the threats from both internal and external and identify the controls applicable. Ensure the threat modeling process includes the threat scenarios in the DevOps process, such as malicious code injection through an insecure artifacts repository with misconfigured access control policy.
-If using a threat modeling tool is not applicable, you should, at minimum, use a questionnaire-based threat modeling process to identify the threats.
-Ensure the threat modeling or analysis results are recorded and updated when there is a major security-impact change in your application or in the threat landscape.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For the GitHub platform, ensure the software supply chain security through the following capability or tools from GitHub Advanced Security or GitHub’s native feature:- Use Dependency Graph to scan, inventory and identify all your project’s dependencies and related vulnerabilities through Advisory Database.
-- Use Dependabot to ensure that the vulnerable dependency is tracked and remediated, and ensure your repository automatically keeps up with the latest releases of the packages and applications it depends on.
-- Use GitHub's native code scanning capability to scan the source code when sourcing the code externally.
-- Use Microsoft Defender for Cloud to integrate vulnerability assessment for your container image in the CI/CD workflow.
-For Azure DevOps, you can use third-party extensions to implement similar controls to inventory, analyze and remediate the third-party software components and their vulnerabilities
-</t>
-  </si>
-  <si>
-    <t>If you use AWS CI/CD platforms such as CodeCommit or CodePipeline, ensure the software supply chain security using CodeGuru Reviewer to scan the source code (for Java and Python) through the CI/CD workflows. Platforms such as CodeCommit and CodePipeline also supports third-party extensions to implement similar controls to inventory, analyze and remediate the third-party software components and their vulnerabilities.
-If you manage your source code through the GitHub platform, ensure the software supply chain security through the following capability or tools from GitHub Advanced Security or GitHub’s native feature:
-- Use Dependency Graph to scan, inventory and identify all your project’s dependencies and related vulnerabilities through Advisory Database.
-- Use Dependabot to ensure that the vulnerable dependency is tracked and remediated, and ensure your repository automatically keeps up with the latest releases of the packages and applications it depends on.
-- Use GitHub's native code scanning capability to scan the source code when sourcing the code externally.
-- If applicable, use Microsoft Defender for Cloud to integrate vulnerability assessment for your container image in the CI/CD workflow.</t>
-  </si>
-  <si>
-    <t>As part of applying the Microsoft Cloud Security Benchmark to your DevOps infrastructure security controls, prioritize the following controls:
-- Protect artifacts and the underlying environment to ensure the CI/CD pipelines don’t become avenues to insert malicious code. For example, review your CI/CD pipeline to identify any misconfiguration in core areas of Azure DevOps such as Organization, Projects, Users, Pipelines (Build &amp; Release), Connections, and Build Agent to identify any misconfigurations such as open access, weak authentication, insecure connection setup and so on. For GitHub, use similar controls to secure the Organization permission levels. 
-- Ensure your DevOps infrastructure is deployed consistently across development projects. Track compliance of your DevOps infrastructure at scale by using Microsoft Defender for Cloud (such as Compliance Dashboard, Azure Policy, Cloud Posture Management) or your own compliance monitoring tools. 
-- Configure identity/role permissions and entitlement policies in Azure AD, native services, and CI/CD tools in your pipeline to ensure changes to the pipelines are authorized.
-- Avoid providing permanent “standing” privileged access to the human accounts such as developers or testers by using features such as Azure managed identifies and just-in-time access.
-- Remove keys, credentials, and secrets from code and scripts used in CI/CD workflow jobs and keep them in a key store or Azure Key Vault. 
-- If you run self-hosted build/deployment agents, follow Microsoft Cloud Security Benchmark controls including network security, posture and vulnerability management, and endpoint security to secure your environment.
-Note: Refer to the Logging and Threat Detection, DS-7, and the Posture and Vulnerability Management sections to use services such as Azure Monitor and Microsoft Sentinel to enable governance, compliance, operational auditing, and risk auditing for your DevOps infrastructure.</t>
-  </si>
-  <si>
-    <t>As part of applying the Microsoft Cloud Security Benchmark to the security controls of your DevOps infrastructure, such as GitHub, CodeCommit, CodeArtifact, CodePipeline, CodeBuild and CodeDeploy, prioritize the following controls: 
-- Refer to this guidance and the AWS Well-architected Framework security pillar to secure your DevOps environments in AWS.
-- Protect artifacts and the underlying supporting infrastructure to ensure the CI/CD pipelines don’t become avenues to insert malicious code. 
-- Ensure your DevOps infrastructure is deployed and sustained consistently across development projects. Track compliance of your DevOps infrastructure at scale by using AWS Config or your own compliance check solution. 
-- Use CodeArtifact to securely store and share software packages used for application development. You can use CodeArtifact with popular build tools and package managers such as Maven, Gradle, npm, yarn, pip, and twine.
-- Configure identity/role permissions and permission policies in AWS IAM, native services, and CI/CD tools in your pipeline to ensure changes to the pipelines are authorized. 
-- Remove keys, credentials, and secrets from code and scripts used in CI/CD workflow jobs and keep them in key store or AWS KMS
-- If you run self-hosted build/deployment agents, follow Microsoft Cloud Security Benchmark controls including network security, posture and vulnerability management, and endpoint security to secure your environment. Use AWS Inspector for vulnerability scanning for vulnerabilities in EC2 or containerized environment as the build environment. 
-Note: Refer to the Logging and Threat Detection, DS-7, and the and Posture and Vulnerability Management sections to use services such as AWS CloudTrail, CloudWatch and Microsoft Sentinel to enable governance, compliance, operational auditing, and risk auditing for your DevOps infrastructure.</t>
-  </si>
-  <si>
-    <t>Integrate SAST into your pipeline (e.g., in your infrastructure as code template) so the source code can be scanned automatically in your CI/CD workflow. Azure DevOps Pipeline or GitHub can integrate the  below tools and third-party SAST tools into the workflow. 
-- GitHub CodeQL for source code analysis.
-- Microsoft BinSkim Binary Analyzer for Windows and *nix binary analysis.
-- Azure DevOps Credential Scanner (Microsoft Security DevOps extension) and GitHub native secret scanning for credential scan in the source code.</t>
-  </si>
-  <si>
-    <t>Integrate SAST into your pipeline so the source code can be scanned automatically in your CI/CD workflow.
-If using AWS CodeCommit, use AWS CodeGuru Reviewer for Python and Java source code analysis. AWS Codepipeline can also support integration of third-part SAST tools into the code deployment pipeline. 
-If using GitHub, the below tools and third-party SAST tools can be integrated into the workflow. 
-- GitHub CodeQL for source code analysis.
-- Microsoft BinSkim Binary Analyzer for Windows and *nix binary analysis.
-- GitHub native secret scanning for credential scan in the source code. 
-- AWS CodeGuru Reviewer for Python and Java source code analysis.</t>
-  </si>
-  <si>
-    <t>Integrate DAST into your pipeline so the runtime application can be tested automatically in your CI/CD workflow set in Azure DevOps or GitHub. The automated penetration testing (with manual assisted validation) should also be part of the DAST. 
-Azure DevOps Pipeline or GitHub supports the integration of third-party DAST tools into the CI/CD workflow.</t>
-  </si>
-  <si>
-    <t>Integrate DAST into your pipeline so the runtime application can be tested automatically in your CI/CD workflow set in AWS CodePipeline or GitHub. The automated penetration testing (with manual assisted validation) should also be part of the DAST. 
-AWS CodePipeline or GitHub supports integration of third-party DAST tools into the CI/CD workflow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guidance for Azure VMs:
-- Use Azure Shared Image Gallery to share and control access to your images by different users, service principals, or AD groups within your organization. Use Azure role-based access control (Azure RBAC) to ensure that only authorized users can access your custom images. 
-- Define the secure configuration baselines for the VMs to eliminate unnecessary credentials, permissions, and packages. Deploy and enforce configuration baselines through custom images, Azure Resource Manager templates, and/or Azure Policy guest configuration.
-Guidance for Azure container services: 
-- Use Azure Container Registry (ACR) to create your private container registry where granular access can be restricted through Azure RBAC, so only authorized services and accounts can access the containers in the private registry. 
-- Use Defender for Containers for vulnerability assessment of the images in your private Azure Container Registry. In addition, you can use Microsoft Defender for Cloud to integrate the container image scans as part of your CI/CD workflows. 
-For Azure serverless services, adopt similar controls to ensure security controls "shift-left" to the stage prior to deployment.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Amazon Elastic Container Registry to share and control access to your images by different users and roles within your organization. And Use AWS IAM to ensure that only authorized users can access your custom images. 
-Define the secure configuration baselines for the EC2 AMI images to eliminate unnecessary credentials, permissions, and packages. Deploy and enforce configurations baselines through custom AMI images, CloudFormation templates, and/or AWS Config Rules.
-Use AWS Inspector for vulnerability scanning of VM's and Containerized environments, securing them from malicious manipulation. 
-For AWS serverless services, use AWS CodePipeline in conjunction with AWS AppConfig to adopt similar controls to ensure security controls "shift left" to the stage prior to deployment.  </t>
-  </si>
-  <si>
-    <t>Enable and configure the audit logging capabilities in non-production and CI/CD tooling environments (such as Azure DevOps and GitHub) used throughout the DevOps process. 
-The events generated from Azure DevOps and the GitHub CI/CD workflow, including the build, test and deployment jobs, should also be monitored to identify any anamolous results.
-Ingest the above logs and events into Microsoft Sentinel or other SIEM tools through a logging stream or API to ensure the security incidents are properly monitored and triaged for handling.</t>
-  </si>
-  <si>
-    <t>Enable and configure AWS CloudTrail for audit logging capabilities in non-production and CI/CD tooling environments (such as AWS CodePipeline, AWS CodeBuild, AWS CodeDeploy, AWS CodeStar) used throughout the DevOps process. 
-The events generated from the AWS CI/CD environments (such as AWS CodePipeline, AWS CodeBuild, AWS CodeDeploy, AWS CodeStar) and the GitHub CI/CD workflow, including the build, test and deployment jobs, should also be monitored to identify any anamolous results.
-Ingest the above logs and events into AWS CloudWatch, Microsoft Sentinel or other SIEM tools through a logging stream or API to ensure the security incidents are properly monitored and triaged for handling.</t>
-  </si>
-  <si>
-    <t>Establish a policy, procedure and standard to ensure the security configuration management and vulnerability management are in place in your cloud security mandate.
-The security configuration management in cloud should include the following areas:
-- Define the secure configuration baselines for different resource types in the cloud, such as the web portal/console, management and control plane, and resources running in the IaaS, PaaS and SaaS services.
-- Ensure the security baselines address the risks in different control areas such as network security, identity management, privileged access, data protection and so on. 
-- Use tools to continuously measure, audit, and enforce the configuration to prevent configuration deviating from the baseline.
-- Develop a cadence to stay updated with security features, for instance, subscribe to the service updates. 
-- Utilize a security health or compliance check mechanism (such as Secure Score, Compliance Dashboard in Microsoft Defender for Cloud) to regularly review security configuration posture and remediate the gaps identified.
-The vulnerability management in the cloud should include the following security aspects:
-- Regularly assess and remediate vulnerabilities in all cloud resource types, such as cloud native services, operating systems, and application components. 
-- Use a risk-based approach to prioritize assessment and remediation. 
-- Subscribe to the relevant CSPM's security advisory notices and blogs to receive the latest security updates. 
-- Ensure the vulnerability assessment and remediation (such as schedule, scope, and techniques) meet the regularly compliance requirements for your organization.</t>
+    <t xml:space="preserve">Use AWS System Manager's State Manager feature to regularly assess and remediate configuration deviations on your EC2 instances. In addition, you can use CloudFormation templates, custom operating system images to maintain the security configuration of the operating system. AMI templates in conjunction with Systems Manager can assist in meeting and maintaining security requirements.
+You can also centrally monitor and manage the operating system configuration drift through Azure Automation State Configuration and onboard the applicable resources to Azure security governance using the following methods :
+- Onboard your AWS account into Microsoft Defender for Cloud 
+- Use Azure Arc for servers to connect your EC2 instances to Microsoft Defender for Cloud
+For workload applications running within your EC2 instances, AWS Lambda or containers environment, you may use AWS System Manager AppConfig to audit and enforce the desired configuration baseline.
+Note: AMIs published by Amazon Web Services in AWS Marketplace are managed and maintained by Amazon Web Services. </t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Cloud assigns a severity to each alert to help you prioritize which alerts should be investigated first. The severity is based on how confident Microsoft Defender for Cloud is in the finding or the analytics used to issue the alert, as well as the confidence level that there was malicious intent behind the activity that led to the alert.
+Similarly, Microsoft Sentinel creates alerts and incidents with an assigned severity and other details based on analytics rules. Use analytic rule templates and customize the rules according to your organization's needs to support incident prioritization. Use automation rules in Microsoft Sentinel to manage and orchestrate threat response in order to maximize your security operation's team efficiency and effectiveness, including tagging incidents to classify them.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use AWS IAM to restrict access to a specific resource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You can specify allow</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or deny actions as well as the conditions under which actions are triggered. You may specify one condition or combine methods of resource-level permissions, resource-based policies, tag-based authorization, temporary crede</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ntials, or service-linked roles to have a fine-grain control access control for your resources. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6842,44 +6902,33 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7318,10 +7367,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7360,10 +7409,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7669,7 +7714,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7829,7 +7874,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K3" sqref="K3"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7922,7 +7967,7 @@
         <v>643</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>644</v>
@@ -7963,7 +8008,7 @@
         <v>651</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>652</v>
@@ -8028,7 +8073,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K5" sqref="K5"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8116,13 +8161,13 @@
         <v>668</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>669</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>670</v>
@@ -8157,13 +8202,13 @@
         <v>677</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>842</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>678</v>
@@ -8239,13 +8284,13 @@
         <v>694</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>695</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>696</v>
@@ -8268,7 +8313,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="I8:K8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8355,13 +8400,13 @@
         <v>706</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>707</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>708</v>
@@ -8396,13 +8441,13 @@
         <v>716</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>717</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>718</v>
@@ -8437,13 +8482,13 @@
         <v>725</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>726</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>727</v>
@@ -8478,13 +8523,13 @@
         <v>734</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>735</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>736</v>
@@ -8519,13 +8564,13 @@
         <v>739</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>740</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>741</v>
@@ -8560,13 +8605,13 @@
         <v>747</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>748</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>749</v>
@@ -8601,13 +8646,13 @@
         <v>756</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>757</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>758</v>
@@ -8630,8 +8675,8 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8852,7 +8897,7 @@
         <v>184</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>799</v>
@@ -9085,7 +9130,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
@@ -9764,7 +9809,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -10272,7 +10317,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J2" sqref="J2"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="H1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10732,7 +10777,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J2" sqref="J2"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11200,7 +11245,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" activeCellId="1" sqref="I4 K4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11288,13 +11333,13 @@
         <v>344</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>345</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>346</v>
@@ -11370,13 +11415,13 @@
         <v>363</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>364</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>365</v>
@@ -11411,13 +11456,13 @@
         <v>371</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>930</v>
+        <v>993</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>372</v>
@@ -11486,9 +11531,9 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11581,13 +11626,13 @@
         <v>466</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>950</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>467</v>
@@ -11622,13 +11667,13 @@
         <v>473</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>947</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>474</v>
@@ -11663,13 +11708,13 @@
         <v>480</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>481</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>482</v>
@@ -11704,13 +11749,13 @@
         <v>487</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>848</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>488</v>
@@ -11745,13 +11790,13 @@
         <v>494</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>495</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>496</v>
@@ -11786,7 +11831,7 @@
         <v>504</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>505</v>
@@ -11833,7 +11878,7 @@
         <v>516</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>517</v>
@@ -11855,9 +11900,9 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I5" sqref="I5"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11945,13 +11990,13 @@
         <v>525</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>526</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>527</v>
@@ -11992,7 +12037,7 @@
         <v>537</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>538</v>
@@ -12033,7 +12078,7 @@
         <v>547</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>548</v>
@@ -12068,13 +12113,13 @@
         <v>552</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>553</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>554</v>
@@ -12109,10 +12154,10 @@
         <v>558</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>955</v>
+        <v>992</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>559</v>
@@ -12150,13 +12195,13 @@
         <v>564</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>565</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>566</v>
@@ -12191,13 +12236,13 @@
         <v>571</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>572</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>573</v>
@@ -12221,7 +12266,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I8" sqref="I8"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12309,13 +12354,13 @@
         <v>581</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>582</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>583</v>
@@ -12350,13 +12395,13 @@
         <v>589</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J3" s="65" t="s">
         <v>590</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>591</v>
@@ -12391,7 +12436,7 @@
         <v>597</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>598</v>
@@ -12432,13 +12477,13 @@
         <v>603</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>969</v>
+        <v>991</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>604</v>
@@ -12479,7 +12524,7 @@
         <v>613</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>614</v>
@@ -12577,12 +12622,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7385881-037e-4b91-bb29-d3b325010731">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12827,22 +12876,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7385881-037e-4b91-bb29-d3b325010731">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96053E57-8459-4FD6-8F54-99848539D806}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0E37C4-1EEA-4BE9-ADC7-FC5801053B93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f7385881-037e-4b91-bb29-d3b325010731"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12869,13 +12918,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0E37C4-1EEA-4BE9-ADC7-FC5801053B93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96053E57-8459-4FD6-8F54-99848539D806}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="f7385881-037e-4b91-bb29-d3b325010731"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Microsoft Cloud Security Benchmark/Microsoft_cloud_security_benchmark_v1.xlsx
+++ b/Microsoft Cloud Security Benchmark/Microsoft_cloud_security_benchmark_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/chcheng1_microsoft_com/Documents/Multi-cloud/MCSB_v1_GA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1358" documentId="8_{68EA57A1-B688-4A17-B399-03A3CD93963D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4C83C9D-C987-4727-85F8-92B728147CAD}"/>
+  <xr:revisionPtr revIDLastSave="1364" documentId="8_{68EA57A1-B688-4A17-B399-03A3CD93963D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DB88E6B-BAA5-45C6-B316-221BCA81D4C2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" tabRatio="786" xr2:uid="{30BFAFB3-652A-4F32-916F-A5B0C74C3635}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="911">
   <si>
     <r>
       <rPr>
@@ -152,31 +152,10 @@
     <t xml:space="preserve">Implementation and additional context: </t>
   </si>
   <si>
-    <t>AWS Foundational Security Best Practices Controls</t>
-  </si>
-  <si>
     <t xml:space="preserve">AWS Config Rule (WIP) </t>
   </si>
   <si>
-    <t>CIS AWS Foundation Benchmark 1.4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defender for Cloud - AWS initiative </t>
-  </si>
-  <si>
-    <t>Gap - AWS Config managed rules</t>
-  </si>
-  <si>
-    <t>Prisma Checks</t>
-  </si>
-  <si>
-    <t>Gap - others</t>
-  </si>
-  <si>
     <t xml:space="preserve">Azure Policy </t>
-  </si>
-  <si>
-    <t>GCP Guidance</t>
   </si>
   <si>
     <t>Customer Security Stakeholders:</t>
@@ -307,52 +286,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[EC2.2] The VPC default security group should not allow inbound and outbound traffic
-[EC2.18] Security groups should only allow unrestricted incoming traffic for authorized ports
-[EC2.19] Security groups should not allow unrestricted access to ports with high risk
-[SageMaker.1] SageMaker notebook instances should not have direct internet access </t>
-  </si>
-  <si>
-    <t>The VPC default security group should not allow inbound and outbound traffic
-Amazon EC2 should be configured to use VPC endpoints
-Security groups should only allow unrestricted incoming traffic for authorized ports
-Security groups should not allow unrestricted access to ports with high risk
-Amazon Elasticsearch Service domains should be in a VPC
-RDS instances should be deployed in a VPC</t>
-  </si>
-  <si>
-    <t>5.3 Ensure the default security group of every VPC restricts all traffic 
-5.2 Ensure no security groups allow ingress from 0.0.0.0/0 to remote 
-server administration ports
-5.1 Ensure no Network ACLs allow ingress from 0.0.0.0/0 to remote 
-server administration ports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The VPC default security group should not allow inbound and outbound traffic
-RDS instances should be deployed in a VPC
-Security groups should only allow unrestricted incoming traffic for authorized ports
-Security groups should not allow unrestricted access to ports with high risk
-SageMaker notebook instances should not have direct internet access
-</t>
-  </si>
-  <si>
-    <t>ec2-instances-in-vpc
-nacl-no-unrestricted-ssh-rdp
-vpc-network-acl-unused-check
-subnet-auto-assign-public-ip-disabled
-internet-gateway-authorized-vpc-only
-no-unrestricted-route-to-igw
-ec2-transit-gateway-auto-vpc-attach-disabled
-ec2-security-group-attached-to-eni-periodic</t>
-  </si>
-  <si>
-    <t>Adaptive network hardening recommendations should be applied on internet facing virtual machines
-All network ports should be restricted on network security groups associated to your virtual machine
-Non-internet-facing virtual machines should be protected with network security groups
-Subnets should be associated with a Network Security Group
-Internet-facing virtual machines should be protected with Network Security Groups</t>
-  </si>
-  <si>
     <t>Security architecture: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-architecture
 Posture management: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-posture-management  
 Application Security and DevOps: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-application-security-devsecops</t>
@@ -385,82 +318,6 @@
 https://docs.aws.amazon.com/vpc/latest/privatelink/endpoint-service.html
 Blocking public access to your Amazon S3 storage:
 https://docs.aws.amazon.com/AmazonS3/latest/userguide/access-control-block-public-access.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[S3.1] S3 buckets should prohibit public write access
-[S3.8] S3 Block Public Access setting should be enabled at the bucket level
-[Lambda.1] Lambda function policies should prohibit public access
-[DMS.1] AWS Database Migration Service replication instances should not be public
-[RDS.18] RDS instances should be deployed in a VPC
-[EC2.10] Amazon EC2 should be configured to use VPC endpoints that are created for the Amazon EC2 service
-</t>
-  </si>
-  <si>
-    <t>S3 Block Public Access setting should be enabled at the bucket level
-Lambda function policies should prohibit public access
-AWS Database Migration Service replication instances should not be public
-Amazon EBS snapshots should not be public, determined by the ability to be restorable by anyone
-EC2 instances should not have a public IP address
-EC2 subnets should not automatically assign public IP addresses
-Amazon EMR cluster master nodes should not have public IP addresses
-RDS DB instances should prohibit public access, determined by the PubliclyAccessible configuration
-Amazon Redshift clusters should prohibit public access
-S3 Block Public Access setting should be enabled
-S3 buckets should prohibit public read access
-S3 buckets should prohibit public write access
-SageMaker notebook instances should not have direct internet access</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3 buckets should prohibit public write access
-S3 Block Public Access setting should be enabled at the bucket level
-Lambda function policies should prohibit public access
-AWS Database Migration Service replication instances should not be public
-RDS instances should be deployed in a VPC
-Amazon Redshift clusters should prohibit public access
-Amazon EC2 should be configured to use VPC endpoints
-</t>
-  </si>
-  <si>
-    <t>vpc-default-security-group-closed
-nacl-no-unrestricted-ssh-rdp
-eks-endpoint-no-public-access
-no-unrestricted-route-to-igw
-service-vpc-endpoint-enabled</t>
-  </si>
-  <si>
-    <t>Check for if the service in scope is using PrivateLink for VPC endpoint access
-https://docs.aws.amazon.com/vpc/latest/privatelink/aws-services-privatelink-support.html</t>
-  </si>
-  <si>
-    <t>Cognitive Services accounts should restrict network access
-Private endpoint should be enabled for PostgreSQL servers
-Cognitive Services accounts should disable public network access
-Private endpoint should be enabled for MariaDB servers
-Authorized IP ranges should be defined on Kubernetes Services
-Public network access on Azure SQL Database should be disabled
-VM Image Builder templates should use private link
-Storage accounts should restrict network access using virtual network rules
-Storage accounts should restrict network access
-Azure Machine Learning workspaces should use private link
-Azure Event Grid topics should use private link
-[Preview]: Storage account public access should be disallowed
-Azure SignalR Service should use private link
-[Preview]: Azure Key Vault should disable public network access
-[Preview]: Private endpoint should be configured for Key Vault
-Storage accounts should use private link
-Private endpoint should be enabled for MySQL servers
-Private endpoint connections on Azure SQL Database should be enabled
-Azure Cache for Redis should reside within a virtual network
-Azure Cosmos DB accounts should have firewall rules
-Azure Event Grid domains should use private link
-Azure Spring Cloud should use network injection
-Public network access should be disabled for PostgreSQL servers
-App Configuration should use private link
-Container registries should not allow unrestricted network access
-Public network access should be disabled for MySQL servers
-Container registries should use private link
-API Management services should use a virtual network
-Public network access should be disabled for MariaDB servers</t>
   </si>
   <si>
     <t>Security architecture: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-architecture
@@ -509,21 +366,6 @@
 https://docs.aws.amazon.com/vpc/latest/userguide/VPC_Route_Tables.html</t>
   </si>
   <si>
-    <t>Amazon Redshift clusters should use enhanced VPC routing</t>
-  </si>
-  <si>
-    <t>netfw-stateless-rule-group-not-empty
-netfw-policy-rule-group-associated
-netfw-policy-default-action-full-packets
-netfw-policy-default-action-fragment-packets</t>
-  </si>
-  <si>
-    <t>Management ports should be closed on your virtual machines
-Management ports of virtual machines should be protected with just-in-time network access control
-IP Forwarding on your virtual machine should be disabled
-[Preview]: All Internet traffic should be routed via your deployed Azure Firewall</t>
-  </si>
-  <si>
     <t>NS-4</t>
   </si>
   <si>
@@ -569,31 +411,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">No relevant rules for AWS Network Firewall IPS/IDS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>*******************************************************
-netfw-stateless-rule-group-not-empty
-netfw-policy-rule-group-associated
-netfw-policy-default-action-full-packets
-netfw-policy-default-action-fragment-packets</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Leverage ids/ips checks </t>
-  </si>
-  <si>
-    <t>No applicable policy</t>
-  </si>
-  <si>
     <t>NS-5</t>
   </si>
   <si>
@@ -627,25 +444,6 @@
   <si>
     <t>AWS Shield Features:
 https://docs.aws.amazon.com/waf/latest/developerguide/ddos-overview.html</t>
-  </si>
-  <si>
-    <t>Classic Load Balancers should have connection draining enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None
-</t>
-  </si>
-  <si>
-    <t>shield-advanced-enabled-autorenew
-fms-shield-resource-policy-check
-shield-drt-access</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>Azure DDoS Protection Standard should be enabled</t>
   </si>
   <si>
     <t>NS-6</t>
@@ -680,32 +478,6 @@
 https://docs.aws.amazon.com/waf/latest/developerguide/aws-managed-rule-groups.html</t>
   </si>
   <si>
-    <t>[CloudFront.6] CloudFront distributions should have AWS WAF enabled
-[APIGateway.4] API Gateway should be associated with an AWS WAF web ACL</t>
-  </si>
-  <si>
-    <t>API Gateway should be associated with an AWS WAF web ACL
-CloudFront distributions should have AWS WAF enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API Gateway should be associated with an AWS WAF web ACL
-CloudFront distributions should have AWS WAF enabled
-</t>
-  </si>
-  <si>
-    <t>alb-waf-enabled</t>
-  </si>
-  <si>
-    <t>AWS API Gateway REST API not configured with AWS Web Application Firewall v2 
-AWS API Gateway Rest API attached WAFv2 WebACL is not configured with AMR for Log4j Vulnerability
-AWS ALB attached WAFv2 WebACL is not configured with AMR for Log4j Vulnerability
-AWS Application Load Balancer (ALB) not configured with AWS Web Application Firewall v2</t>
-  </si>
-  <si>
-    <t>Web Application Firewall (WAF) should be enabled for Azure Front Door Service service
-Web Application Firewall (WAF) should be enabled for Application Gateway</t>
-  </si>
-  <si>
     <t>NS-7</t>
   </si>
   <si>
@@ -737,17 +509,6 @@
 https://docs.aws.amazon.com/waf/latest/developerguide/fms-findings.html</t>
   </si>
   <si>
-    <t>fms-shield-resource-policy-check
-fms-webacl-resource-policy-check
-fms-webacl-rulegroup-association-check</t>
-  </si>
-  <si>
-    <t>No relevant rules for AWS Firewall manager , such as unresolved critical findings, non-optimized protection policies for WAF, firewall, security groups, etc.</t>
-  </si>
-  <si>
-    <t>Adaptive network hardening recommendations should be applied on internet facing virtual machines</t>
-  </si>
-  <si>
     <t>NS-8</t>
   </si>
   <si>
@@ -775,19 +536,6 @@
   <si>
     <t>Use GuardDuty with VPC Flow Logs as the data source:
 https://docs.aws.amazon.com/guardduty/latest/ug/guardduty_data-sources.html#guardduty_vpc</t>
-  </si>
-  <si>
-    <t>[GuardDuty.1] GuardDuty should be enabled
-[EC2.6] VPC flow logging should be enabled in all VPCs</t>
-  </si>
-  <si>
-    <t>GuardDuty should be enabled
-VPC flow logging should be enabled in all VPCs</t>
-  </si>
-  <si>
-    <t>Latest TLS version should be used in your API App
-Latest TLS version should be used in your Web App
-Latest TLS version should be used in your Function App</t>
   </si>
   <si>
     <t>NS-9</t>
@@ -835,38 +583,6 @@
 </t>
   </si>
   <si>
-    <t>5.4 Ensure routing tables for VPC peering are "least access"</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vpc-vpn-2-tunnels-up
-vpc-peering-dns-resolution-check
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unauthorized VPC peering ( VPC peering between two VPCs from different AWS accounts)
-AWS route table with VPC peering overly permissive to all traffic
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">No relevant rules for AWS VPN, DirectConnect, VPC Peering, VPC Sharing. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>NS-10</t>
   </si>
   <si>
@@ -910,16 +626,6 @@
 https://docs.aws.amazon.com/Route53/latest/DeveloperGuide/registrar.html</t>
   </si>
   <si>
-    <t>have a check if DNS firewall rule groups are empty/and associated with a VPC
-have a check for if DNSSec is enabled on all domains (authoritative name servers)
-have a check for if domain auto-renew on all domains (registered domains)
-have a check for if spf is enabled on all domains (authoritative name servers)
-have a check for domain transfer lock on all domains (registered domains)</t>
-  </si>
-  <si>
-    <t>[Preview]: Azure Defender for DNS should be enabled</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -993,19 +699,6 @@
 https://docs.aws.amazon.com/singlesignon/index.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Google Cloud's Identity and Access Management (IAM) system is Google Cloud's default identity and authentication management service used for Google Cloud Identity accounts. Use Google Cloud IAM to govern your GCP identity and access management.  Alternatively, through the Google Cloud Identity and Azure Sigle Sign-On (SSO), you can also use Azure AD to manage the identity and access control of GCP to avoid managing duplicate accounts separately in two cloud platforms.
-Google Cloud Identity supports Single Sign-On which allows you to bridge your corporate's third party identities (such as Windows Active Directory,  or other identity stores) with Google Cloud identities to avoid creating duplicate accounts to access GCP resources. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCP IAM overview: https://cloud.google.com/iam/docs/overview
-Azure AD user provisioning and single sign-on: 
-https://cloud.google.com/architecture/identity/federating-gcp-with-azure-ad-configuring-provisioning-and-single-sign-on
-Single sign-on:
-https://cloud.google.com/architecture/identity/single-sign-on
-</t>
-  </si>
-  <si>
     <t>Identity and key management: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-identity-keys
 Security architecture: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-architecture
 Application security and DevSecOps: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-application-security-devsecops
@@ -1053,29 +746,6 @@
 https://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_getting-report.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Use the following security best practices to secure your Google Cloud IAM:
-- Set up a super admin account for emergency access as described in PA-5 (Set up emergency access)
-- Follow least privilege and separation of duties principles
-- Leverage Google Cloud Identity groups to apply policies instead of individual user(s).
-- Follow strong authentication guidance in IM-6 (Use strong authentication controls) for all users
-- Use IAM policies to restrict access to resources
-- Use the Organization Policy Service to control and configure constraints on resources
-- Use IAM audit logging within Cloud Audit logs
-Note: Follow published best practices if you have other identity and authentication systems, e.g., follow the Azure AD security baseline if you use Azure AD to manage AWS identity and access. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super administrator account best practices: 
-https://cloud.google.com/resource-manager/docs/super-admin-best-practices
-Use IAM securely:
-https://cloud.google.com/iam/docs/using-iam-securely
-Manage access to other resources:
-https://cloud.google.com/iam/docs/manage-access-other-resources 
-Introduction to the Organization Policy Service:
-https://cloud.google.com/resource-manager/docs/organization-policy/overview
-</t>
-  </si>
-  <si>
     <t>IM-3</t>
   </si>
   <si>
@@ -1102,18 +772,6 @@
 https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_create_for-service.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Use Google-managed service accounts instead of creating user-managed accounts for resources that support this feature. Google-managed service accounts are managed by the platform at the backend and the service account keys are temporary and rotated automatically. This avoids creating long-term access keys or a username/password for applications and hard-coded hard-coding credentials in source code or configuration files. 
-Use Policy Intelligence to understand and recognize suspicious activity for service accounts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service accounts overview:
-https://cloud.google.com/iam/docs/service-account-overview
-Tools to understand service account usage:
-https://cloud.google.com/policy-intelligence/docs/service-account-usage-tools
-</t>
-  </si>
-  <si>
     <t>Identity and key management: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-identity-keys
 Application security and DevSecOps: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-application-security-devsecops</t>
   </si>
@@ -1141,16 +799,6 @@
 https://docs.aws.amazon.com/apigateway/latest/developerguide/getting-started-client-side-ssl-authentication.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Many GCP services support TLS authentication by default. For services that don't support this by default or support disabling TLS, ensure it is always enabled to support the server/client authentication. Your client application should also be designed to verify server/client identity (by verifying the server’s certificate issued by a trusted certificate authority) in the handshake stage.
-Note: Services such as API Gateway support TLS mutual authentication. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encryption in transit:
-https://cloud.google.com/docs/security/encryption-in-transit#virtual-network
-</t>
-  </si>
-  <si>
     <t>IM-5</t>
   </si>
   <si>
@@ -1179,19 +827,6 @@
 https://docs.aws.amazon.com/singlesignon/
 AWS Cognito Single Sign-On Adding SAML identity providers:
 https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pools-saml-idp.html
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure Google Cloud Identity to use single sign-on (SSO) to manage access to  your customer facing application workloads to allow customers to bridge their third-party identities from different identity providers.
-For SSO access to the GCP native resources (including GCP console access or service management and data plane level access), use GCP Sigle Sign-On to reduce the need for duplicate accounts. 
-Cloud Identity SSO also allows you to bridge corporate identities (such as identities from Azure Active Directory) with GCP identities, as well as external user identities from trusted third-party and public users.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azure AD user provisioning and single sign-on: 
-https://cloud.google.com/architecture/identity/federating-gcp-with-azure-ad-configuring-provisioning-and-single-sign-on
-Single sign-on:
-https://cloud.google.com/architecture/identity/single-sign-on
 </t>
   </si>
   <si>
@@ -1252,20 +887,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Google Cloud Identity supports strong authentication controls through multi-factor authentication (MFA). MFA can be enforced on all users, select users, or at the per-user level based on defined conditions.
-If you use corporate accounts from a third-party directory (such as Windows Active Directory) with Google Cloud identities, follow the respective security guidance to enforce strong authentication.  Refer to the Azure Guidance for this control if you use Azure AD to manage Google Cloud access.
-Use Identity-Aware Proxy to establish a central authorization layer for applications accessed by HTTPS, so you can use an application-level access control model instead of relying on network-level firewalls.
-Note: For third-party applications and GCP services that may have default IDs and passwords, you should disable or change them during initial service setup.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enforce uniform MFA to company-owned resources:
-https://cloud.google.com/identity/solutions/enforce-mfa
-Identity-Aware Proxy overview:
-https://cloud.google.com/iap/docs/concepts-overview
-</t>
-  </si>
-  <si>
     <t>IM-7</t>
   </si>
   <si>
@@ -1307,16 +928,6 @@
 https://docs.aws.amazon.com/service-authorization/latest/reference/reference_policies_actions-resources-contextkeys.html#context_keys_table</t>
   </si>
   <si>
-    <t xml:space="preserve">Create and define IAM Conditions for more granular attribute-based access controls based on user-defined conditions, such as requiring user logins from certain IP ranges (or devices) to use multi-factor authentication. Condition settings may include single or multiple conditions as well as logic.
-Conditions are specified in the role bindings of a resource's allow policy. Condition attributes are based on the requested resource—for example, its type or name—or on details about the request—for example, its timestamp or destination IP address.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overview of IAM Conditions:
-https://cloud.google.com/iam/docs/conditions-overview
-</t>
-  </si>
-  <si>
     <t>Identity and key management: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-identity-keys
 Application security and DevSecOps: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-application-security-devsecops
 Posture management: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-posture-management
@@ -1369,22 +980,6 @@
 https://docs.aws.amazon.com/codeguru/latest/reviewer-ug/recommendations.html</t>
   </si>
   <si>
-    <t xml:space="preserve">When using a Google-managed service account for application access is not an option, ensure that secrets and credentials are stored in secure locations such as Google Cloud's Secret Manager instead of embedding them into the code and configuration files. 
-Use the Google Cloud Code extension on IDE's such as Visual Studio Code to integrate secrets managed by Secret Manager into your code.
-If you use the Azure DevOps and GitHub for your code management platform:
-- Implement Azure DevOps Credential Scanner to identify credentials within the code. 
-- For GitHub, use the native secret scanning feature to identify credentials or other forms of secrets within the code.
-Note: Set up rotation schedules for secrets stored in Secret Manager as a best practice.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret Manager Best practices:
-Secret Manager Best practices  |  Secret Manager Documentation  |  Google Cloud
-Cloud Code for VS Code features:
-https://cloud.google.com/code/docs/vscode/features
-</t>
-  </si>
-  <si>
     <t>Application security and DevSecOps: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-application-security-devsecops
 Posture management: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-posture-management</t>
   </si>
@@ -1419,16 +1014,6 @@
 https://aws.amazon.com/marketplace/search/results?searchTerms=Application+proxy
 AWS Marketplace CASB solutions: 
 https://aws.amazon.com/marketplace/search/results?searchTerms=CASB
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Identity-Aware Proxy (IAP) to manage access to HTTP-based applications outside of Google Cloud, including applications on-premises. IAP works using signed headers or the Users API within an App Engine standard environment. If required, use third-party Software-Defined Perimeter (SDP) solution which can offer similar functionality.
-Note: VPNs are commonly used to access legacy applications and often only have basic access control and limited session monitoring. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overview of IAP for on-premises apps: 
-https://cloud.google.com/iap/docs/cloud-iap-for-on-prem-apps-overview
 </t>
   </si>
   <si>
@@ -1479,29 +1064,6 @@
 https://docs.aws.amazon.com/accounts/latest/reference/best-practices-root-user.html</t>
   </si>
   <si>
-    <t xml:space="preserve">You must secure all roles with direct or indirect administrative access to GCP hosted resources.
-The most critical built-in role in Google Cloud is the super administrator. The super administrator can perform all tasks in the Admin console and has irrevocable administrative permissions. It is advised against using the super admin account for day-to-day administration.
-Basic roles are highly permissive legacy roles, and it is advised that basic roles are not used in production environments as it grants broad access across all Google Cloud resources. Basic roles include the Viewer, Editor, and Owner roles. It is instead recommended to use predefined or custom roles. The notable privileged predefined roles include:
-- Organization Administrator: Users with this role can manage IAM policies and view organization policies for organizations, folders, and projects.
-- Organization Policy Administrator: Users with this role can define what restrictions an organization wants to place on the configuration of cloud resources by setting Organization Policies.
-- Organization Role Administrator: Users with this role can administer all custom roles in the organization and projects below it.
-- Security Admin: Users with this role can get and set any IAM policy.
-- Deny Admin: Users with this role has permissions to read and modify IAM deny policies.
-Additionally, certain predefined roles contain privileged IAM permissions at the organization, folder, and project level. These IAM permissions include:
-- organizationAdmin
-- folderIAMAdmin
-- projectIAMAdmin
-Further, implement separation of duties by assigning roles to accounts for different projects, or by leveraging Binary Authorization with Google Kubernetes Engine.
-Lastly, ensure that you also restrict privileged accounts in other management, identity, and security systems that have administrative access to your business-critical assets, such as Cloud DNS, security tools, and system management tools with agents installed on business-critical systems. Attackers who compromise these management and security systems can immediately weaponize them to compromise business critical assets.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super administrator account best practices: https://cloud.google.com/resource-manager/docs/super-admin-best-practices
-IAM basic and predefined roles reference: https://cloud.google.com/iam/docs/understanding-roles
-Separation of duties and Identity and Access Management roles: https://cloud.google.com/binary-authorization/docs/reference/organizational-and-iam-roles
-</t>
-  </si>
-  <si>
     <t>Identity and key management: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-identity-keys
 Security architecture: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-architecture
 Security Compliance Management: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-compliance-management
@@ -1529,16 +1091,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Use IAM conditional access to create temporary access to resources using conditional role bindings in allow policies, which is granted to Cloud Identity users. Configure date/time attributes to enforce time-based controls for accessing a particular resource. Temporary access may have a short-term life, from minutes to hours, or may be granted based on days or hours of the week.
-Additionally, you may use Just-In-Time Access, which is an open source tool designed to run on App Engine or Cloud Run and provides just-in-time privileged access to Google Cloud resources.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure temporary access: https://cloud.google.com/iam/docs/configuring-temporary-access
-Manage just-in-time privileged access to projects: https://cloud.google.com/architecture/manage-just-in-time-privileged-access-to-project
-</t>
-  </si>
-  <si>
     <t>PA-3</t>
   </si>
   <si>
@@ -1570,18 +1122,6 @@
 https://docs.aws.amazon.com/IAM/latest/UserGuide/access_policies_access-advisor-view-data.html
 AWS Marketplace Identity and Access Management solutions:
 https://aws.amazon.com/marketplace/solutions/security/identity-access-management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Google's Cloud Audit Logs to pull the admin activity and data access audit logs for the user accounts and entitlements for resources.  Build a manual or automated workflow to integrate with GCP IAM to manage access assignments, reviews, and deletions. 
-Note: There are third-party solutions available on the Google Cloud Marketplace for managing the lifecycle of identities and entitlements.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAM Access Advisor:
-https://docs.aws.amazon.com/IAM/latest/UserGuide/access_policies_access-advisor-view-data.html
-Cloud Identity and Atlassian Access: User lifecycle management across your organization:
-https://cloud.google.com/blog/products/identity-security/cloud-identity-and-atlassian-access-user-lifecycle-management-across-your-organization
-</t>
   </si>
   <si>
     <t>Identity and key management: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-identity-keys
@@ -1632,17 +1172,6 @@
 https://docs.aws.amazon.com/IAM/latest/UserGuide/access_policies_access-advisor-view-data.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Review all privileged accounts and the access entitlements in Google Cloud including Cloud Identity accounts, services, VM/IaaS, CI/CD processes, and enterprise management and security tools. 
-Use Cloud Audit Logs and Policy Analyzer to review resource access roles, and group memberships. Create analysis queries in Policy Analyzer to understand determine which principals can access specific resources.
-If you are using Azure Active Directory (Azure AD) as the identity provider for Google Cloud, use Azure AD access review to review the privileged accounts and access entitlements periodically. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAM audit logging: https://cloud.google.com/iam/docs/audit-logging
-Policy Analyzer for IAM policies: https://cloud.google.com/policy-intelligence/docs/policy-analyzer-overview
-</t>
-  </si>
-  <si>
     <t>PA-5</t>
   </si>
   <si>
@@ -1660,16 +1189,6 @@
   <si>
     <t>Best practices to protect your account's root user:
 https://docs.aws.amazon.com/accounts/latest/reference/best-practices-root-user.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Cloud Identity super administrator accounts should not be used for regular administrative tasks. As the super admin account is highly privileged, it should not be assigned to specific individuals. It's use should be limited to only emergency or "break glass” scenarios when normal administrative accounts can't be used. For daily administrative tasks, separate privileged user accounts should be used and assigned the appropriate permissions via IAM roles.
-You should also ensure that the credentials (such as password, MFA tokens and access keys) for super admin accounts are kept secure and known only to individuals who are authorized to use them only in an emergency. MFA should be enabled for the super admin account, and you may also use additional controls, such as dual controls (e.g., splitting the credential into two pieces and giving it to separate persons) to enhance the security of this process. 
-You should also monitor the sign-in and audit logs in Cloud Audit Logs, or query the Policy Analyzer, to ensure that super admin accounts are only used when authorized. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super administrator account best practices: https://cloud.google.com/resource-manager/docs/super-admin-best-practices 
-</t>
   </si>
   <si>
     <t>Identity and key management: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-identity-keys
@@ -1714,18 +1233,6 @@
   <si>
     <t xml:space="preserve">AWS Systems Manager Session Manager:
 https://docs.aws.amazon.com/systems-manager/latest/userguide/session-manager.html
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Identity-Aware Proxy (IAP) Desktop to create an access path (a connection session) to the compute instance for privileged tasks. IAP Desktop allows RDP and SSH connectivity to your destination hosts through port forwarding. Furthermore, Linux compute instances that are external facing may be connected to through a SSH-in-browser through the Google Cloud console.
-You may also choose to deploy a privileged access workstations (PAW) centrally managed through Azure Active Directory, Microsoft Defender, and/or Microsoft Intune. The central management should enforce secured configuration, including strong authentication, software and hardware baselines, and restricted logical and network access.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connect to Windows VMs using RDP: https://cloud.google.com/compute/docs/instances/connecting-to-windows
-Connect to Linux VMs using Identity-Aware Proxy: 
-https://cloud.google.com/compute/docs/connect/ssh-using-iap
-Connect to Linux VMs: https://cloud.google.com/compute/docs/connect/standard-ssh#console
 </t>
   </si>
   <si>
@@ -1781,16 +1288,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Use Google Cloud IAM Policy to manage GCP resource access through role assignments. You may use Google Cloud's predefined roles for common permission use cases. However, you should be mindful that predefined roles may carry excessive permissions that should not be assigned to the users. 
-Additionally, use Policy Intelligence with the IAM Recommender to identify and remove excessive permissions from accounts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access Control with IAM: https://cloud.google.com/support/docs/access-control
-Overview of role recommendations: https://cloud.google.com/policy-intelligence/docs/role-recommendations-overview
-</t>
-  </si>
-  <si>
     <t>Application security and DevSecOps: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-application-security-devsecops
 Security Compliance Management: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-compliance-management
 Posture management: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-posture-management 
@@ -1818,14 +1315,6 @@
   <si>
     <t>Access permissions for AWS Support:
 https://docs.aws.amazon.com/awssupport/latest/user/accessing-support.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In support scenarios where Google Cloud Customer Care needs to access your data, use Access Approval to review and either approve or reject each data access requests made by Cloud Customer Care.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overview of Access Approval: https://cloud.google.com/cloud-provider-access-management/access-approval/docs/overview
-</t>
   </si>
   <si>
     <t>Application security and DevSecOps: https://docs.microsoft.com/azure/cloud-adoption-framework/organize/cloud-security-application-security-devsecops
@@ -6786,7 +6275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6894,12 +6383,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -6938,7 +6421,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6970,12 +6453,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6983,18 +6460,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7184,7 +6649,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -7274,15 +6739,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7312,7 +6768,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -7328,18 +6784,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7348,12 +6792,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7367,22 +6805,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7719,10 +7157,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="41"/>
+    <col min="1" max="1" width="1.44140625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.5546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7732,30 +7170,30 @@
     </row>
     <row r="2" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="70" t="s">
-        <v>853</v>
-      </c>
-      <c r="C2" s="71"/>
+      <c r="B2" s="61" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:4" ht="118.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
-      <c r="B3" s="72" t="s">
-        <v>854</v>
-      </c>
-      <c r="C3" s="73"/>
+      <c r="B3" s="63" t="s">
+        <v>771</v>
+      </c>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:4" ht="107.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="73"/>
+      <c r="C5" s="64"/>
     </row>
     <row r="6" spans="1:4" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6"/>
@@ -7763,96 +7201,96 @@
       <c r="C6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8"/>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10"/>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11"/>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="44"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12"/>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="44"/>
+      <c r="D12" s="41"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13"/>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="44"/>
+      <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14"/>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="44"/>
+      <c r="D15" s="41"/>
     </row>
     <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7923,7 +7361,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="K1" s="23" t="s">
         <v>23</v>
@@ -7932,130 +7370,130 @@
         <v>15</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>635</v>
+        <v>552</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>636</v>
+        <v>553</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>637</v>
+        <v>554</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>638</v>
+        <v>555</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>639</v>
+        <v>556</v>
       </c>
       <c r="F2" s="5">
         <v>11.5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>640</v>
+        <v>557</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>641</v>
+        <v>558</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>642</v>
+        <v>559</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>643</v>
+        <v>560</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>968</v>
+        <v>885</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>644</v>
+        <v>561</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>645</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="221.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>646</v>
+        <v>563</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>636</v>
+        <v>553</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>647</v>
+        <v>564</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>648</v>
+        <v>565</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>639</v>
+        <v>556</v>
       </c>
       <c r="F3" s="5">
         <v>5.0999999999999996</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>649</v>
+        <v>566</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>650</v>
+        <v>567</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>845</v>
+        <v>762</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>651</v>
+        <v>568</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>969</v>
+        <v>886</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>652</v>
+        <v>569</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>645</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>653</v>
+        <v>570</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>636</v>
+        <v>553</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>654</v>
+        <v>571</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>655</v>
+        <v>572</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>656</v>
+        <v>573</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>657</v>
+        <v>574</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>658</v>
+        <v>575</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>659</v>
+        <v>576</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>843</v>
+        <v>760</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>660</v>
+        <v>577</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>844</v>
+        <v>761</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>661</v>
+        <v>578</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>645</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -8098,205 +7536,205 @@
       <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>662</v>
+        <v>579</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>663</v>
+        <v>580</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>664</v>
+        <v>581</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>665</v>
+        <v>582</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>666</v>
+        <v>583</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>667</v>
+        <v>584</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>668</v>
+        <v>585</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>970</v>
+        <v>887</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>669</v>
+        <v>586</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>971</v>
+        <v>888</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>670</v>
+        <v>587</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>671</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>672</v>
+        <v>589</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>663</v>
+        <v>580</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>673</v>
+        <v>590</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>674</v>
+        <v>591</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>675</v>
+        <v>592</v>
       </c>
       <c r="F3" s="2">
         <v>3.4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>676</v>
+        <v>593</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>677</v>
+        <v>594</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>972</v>
+        <v>889</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>842</v>
+        <v>759</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>973</v>
+        <v>890</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>678</v>
+        <v>595</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>679</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="231.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>680</v>
+        <v>597</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>663</v>
+        <v>580</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>673</v>
+        <v>590</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>674</v>
+        <v>591</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>681</v>
+        <v>598</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>682</v>
+        <v>599</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>683</v>
+        <v>600</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>684</v>
+        <v>601</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>685</v>
+        <v>602</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>686</v>
+        <v>603</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>687</v>
+        <v>604</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>688</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>689</v>
+        <v>606</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>663</v>
+        <v>580</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>690</v>
+        <v>607</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>691</v>
+        <v>608</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>692</v>
+        <v>609</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>693</v>
+        <v>610</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>694</v>
+        <v>611</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>974</v>
+        <v>891</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>695</v>
+        <v>612</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>974</v>
+        <v>891</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>696</v>
+        <v>613</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>697</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -8362,303 +7800,303 @@
         <v>22</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>698</v>
+        <v>615</v>
       </c>
       <c r="K1" s="24" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>699</v>
+        <v>616</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>700</v>
+        <v>617</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>701</v>
+        <v>618</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>702</v>
+        <v>619</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>703</v>
+        <v>620</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>704</v>
+        <v>621</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>705</v>
+        <v>622</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>706</v>
+        <v>623</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>975</v>
+        <v>892</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>707</v>
+        <v>624</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>976</v>
+        <v>893</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>708</v>
+        <v>625</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>709</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="361.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>710</v>
+        <v>627</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>701</v>
+        <v>618</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>711</v>
+        <v>628</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>712</v>
+        <v>629</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>713</v>
+        <v>630</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>714</v>
+        <v>631</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>715</v>
+        <v>632</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>716</v>
+        <v>633</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>977</v>
+        <v>894</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>717</v>
+        <v>634</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>978</v>
+        <v>895</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>718</v>
+        <v>635</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="378" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>719</v>
+        <v>636</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>701</v>
+        <v>618</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>720</v>
+        <v>637</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>721</v>
+        <v>638</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>722</v>
+        <v>639</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>723</v>
+        <v>640</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>724</v>
+        <v>641</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>725</v>
+        <v>642</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>979</v>
+        <v>896</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>726</v>
+        <v>643</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>980</v>
+        <v>897</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>727</v>
+        <v>644</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>728</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="211.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>729</v>
+        <v>646</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>701</v>
+        <v>618</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>730</v>
+        <v>647</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>731</v>
+        <v>648</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>732</v>
+        <v>649</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>714</v>
+        <v>631</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>733</v>
+        <v>650</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>734</v>
+        <v>651</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>981</v>
+        <v>898</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>735</v>
+        <v>652</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>982</v>
+        <v>899</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>736</v>
+        <v>653</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>737</v>
+        <v>654</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>701</v>
+        <v>618</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>730</v>
+        <v>647</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>731</v>
+        <v>648</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>732</v>
+        <v>649</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>714</v>
+        <v>631</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>738</v>
+        <v>655</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>739</v>
+        <v>656</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>983</v>
+        <v>900</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>740</v>
+        <v>657</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>984</v>
+        <v>901</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>741</v>
+        <v>658</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="310.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>742</v>
+        <v>659</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>701</v>
+        <v>618</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>743</v>
+        <v>660</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>744</v>
+        <v>661</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>722</v>
+        <v>639</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>745</v>
+        <v>662</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>746</v>
+        <v>663</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>747</v>
+        <v>664</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>985</v>
+        <v>902</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>748</v>
+        <v>665</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>986</v>
+        <v>903</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>749</v>
+        <v>666</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>750</v>
+        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>751</v>
+        <v>668</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>701</v>
+        <v>618</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>752</v>
+        <v>669</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>753</v>
+        <v>670</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>463</v>
+        <v>380</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>754</v>
+        <v>671</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>755</v>
+        <v>672</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>756</v>
+        <v>673</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>988</v>
+        <v>905</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>757</v>
+        <v>674</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>989</v>
+        <v>906</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>758</v>
+        <v>675</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>759</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -8682,7 +8120,7 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19" style="52" customWidth="1"/>
+    <col min="2" max="2" width="19" style="49" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="27.44140625" style="20" customWidth="1"/>
@@ -8696,11 +8134,11 @@
     <col min="13" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="23" t="s">
@@ -8722,398 +8160,398 @@
         <v>7</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>760</v>
+        <v>677</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>761</v>
+        <v>678</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>762</v>
+        <v>679</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>763</v>
+        <v>680</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>764</v>
+        <v>681</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>765</v>
+        <v>682</v>
       </c>
       <c r="F2" s="12">
         <v>12.4</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>766</v>
+        <v>683</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>767</v>
+        <v>684</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>768</v>
+        <v>685</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>769</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>770</v>
+        <v>687</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>762</v>
+        <v>679</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>771</v>
+        <v>688</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>772</v>
+        <v>689</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>773</v>
+        <v>690</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>774</v>
+        <v>691</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>775</v>
+        <v>692</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>776</v>
+        <v>693</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>777</v>
+        <v>694</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>769</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>778</v>
+        <v>695</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>762</v>
+        <v>679</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>779</v>
+        <v>696</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>780</v>
+        <v>697</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>781</v>
+        <v>698</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>782</v>
+        <v>699</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>783</v>
+        <v>700</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>784</v>
+        <v>701</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>785</v>
+        <v>702</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>769</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>786</v>
+        <v>703</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>762</v>
+        <v>679</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>787</v>
+        <v>704</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>788</v>
+        <v>705</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>789</v>
+        <v>706</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>790</v>
+        <v>707</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>791</v>
+        <v>708</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>792</v>
+        <v>709</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>793</v>
+        <v>710</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>769</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>794</v>
+        <v>711</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>762</v>
+        <v>679</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>795</v>
+        <v>712</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>577</v>
+        <v>494</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>796</v>
+        <v>713</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>797</v>
+        <v>714</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>798</v>
+        <v>715</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>987</v>
+        <v>904</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>799</v>
+        <v>716</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>769</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>800</v>
+        <v>717</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>762</v>
+        <v>679</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>801</v>
+        <v>718</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>802</v>
+        <v>719</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>803</v>
+        <v>720</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>804</v>
+        <v>721</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>805</v>
+        <v>722</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>806</v>
+        <v>723</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>807</v>
+        <v>724</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>769</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="330.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>808</v>
+        <v>725</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>762</v>
+        <v>679</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>809</v>
+        <v>726</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>810</v>
+        <v>727</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>811</v>
+        <v>728</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>812</v>
+        <v>729</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>813</v>
+        <v>730</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>814</v>
+        <v>731</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>815</v>
+        <v>732</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>769</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="288" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>816</v>
+        <v>733</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>762</v>
+        <v>679</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>664</v>
+        <v>581</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>817</v>
+        <v>734</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>818</v>
+        <v>735</v>
       </c>
       <c r="F9" s="12">
         <v>3.4</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>819</v>
+        <v>736</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>820</v>
+        <v>737</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>821</v>
+        <v>738</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>769</v>
+        <v>686</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>822</v>
+        <v>739</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>762</v>
+        <v>679</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>823</v>
+        <v>740</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>824</v>
+        <v>741</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>825</v>
+        <v>742</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>826</v>
+        <v>743</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>827</v>
+        <v>744</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>828</v>
+        <v>745</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>829</v>
+        <v>746</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>769</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>830</v>
+        <v>747</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>762</v>
+        <v>679</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>831</v>
+        <v>748</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>832</v>
+        <v>749</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>833</v>
+        <v>750</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>834</v>
+        <v>751</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>835</v>
+        <v>752</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>836</v>
+        <v>753</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>837</v>
+        <v>754</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>769</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>838</v>
+        <v>755</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>762</v>
+        <v>679</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>839</v>
+        <v>756</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>840</v>
+        <v>757</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>841</v>
+        <v>758</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>769</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -9127,12 +8565,12 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J2" sqref="J2"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9149,650 +8587,458 @@
     <col min="10" max="10" width="57.6640625" customWidth="1"/>
     <col min="11" max="11" width="63.88671875" customWidth="1"/>
     <col min="12" max="12" width="49.109375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="37" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="85.6640625" style="25" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="66.33203125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="62.6640625" style="25" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="38.6640625" style="25" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="59.33203125" style="25" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="60.6640625" style="25" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="49.5546875" style="10" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="72.5546875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="72.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="62" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:13" s="53" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="28" t="s">
+      <c r="M1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="33" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="288" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>769</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="3" spans="1:13" ht="312.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="212.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>768</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="J2" s="69" t="s">
-        <v>852</v>
-      </c>
-      <c r="K2" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="G8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="3" spans="1:21" ht="312.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>856</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>65</v>
+    <row r="9" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="212.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>51</v>
+    <row r="10" spans="1:13" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>859</v>
-      </c>
-      <c r="J5" s="69" t="s">
-        <v>851</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="P5" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="9" t="s">
+    <row r="11" spans="1:13" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>863</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="P6" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="S6" s="31"/>
-      <c r="T6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="I11" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="K11" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="P8" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>867</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="M10" s="25"/>
-      <c r="O10" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="S10" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="P11" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q11" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="S11" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>65</v>
+      <c r="M11" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -9806,11 +9052,11 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9826,12 +9072,11 @@
     <col min="10" max="10" width="63" customWidth="1"/>
     <col min="11" max="11" width="96" customWidth="1"/>
     <col min="12" max="12" width="75.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="75.33203125" customWidth="1"/>
-    <col min="15" max="15" width="69.33203125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="13" max="13" width="69.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
@@ -9860,7 +9105,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="K1" s="23" t="s">
         <v>23</v>
@@ -9868,437 +9113,377 @@
       <c r="L1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>34</v>
+      <c r="M1" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="249" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="249" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="216" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="216.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>797</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="M7" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="274.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>874</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="216" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="216.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="K7" s="64" t="s">
-        <v>880</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="274.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="F8" s="7">
         <v>7.2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>908</v>
+        <v>825</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>879</v>
+        <v>796</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>231</v>
+        <v>167</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>878</v>
+        <v>795</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>886</v>
+        <v>803</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="303" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="303" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>887</v>
+        <v>804</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>889</v>
+        <v>806</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>888</v>
+        <v>805</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -10312,12 +9497,12 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J2" sqref="J2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10333,11 +9518,11 @@
     <col min="9" max="9" width="105.6640625" style="20" customWidth="1"/>
     <col min="10" max="10" width="40.33203125" customWidth="1"/>
     <col min="11" max="11" width="104.33203125" customWidth="1"/>
-    <col min="12" max="14" width="88.6640625" customWidth="1"/>
-    <col min="15" max="15" width="72.5546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="88.6640625" customWidth="1"/>
+    <col min="13" max="13" width="72.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
@@ -10366,7 +9551,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="K1" s="23" t="s">
         <v>23</v>
@@ -10374,390 +9559,336 @@
       <c r="L1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>34</v>
+      <c r="M1" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="20" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="20" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="20" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="20" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>893</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="20" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="20" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="20" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>901</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="20" customFormat="1" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="20" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -10831,7 +9962,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="K1" s="23" t="s">
         <v>23</v>
@@ -10840,395 +9971,395 @@
         <v>24</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="N1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="30" t="s">
-        <v>32</v>
-      </c>
       <c r="P1" s="27" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="286.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>381</v>
+        <v>298</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>384</v>
+        <v>301</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>386</v>
+        <v>303</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>387</v>
+        <v>304</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>388</v>
+        <v>305</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>909</v>
+        <v>826</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>910</v>
+        <v>827</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>911</v>
+        <v>828</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>389</v>
+        <v>306</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>390</v>
+        <v>307</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>391</v>
+        <v>308</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>393</v>
+        <v>310</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>394</v>
+        <v>311</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>395</v>
+        <v>312</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>396</v>
+        <v>313</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>386</v>
+        <v>303</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>397</v>
+        <v>314</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>398</v>
+        <v>315</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>912</v>
+        <v>829</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="K3" s="68" t="s">
-        <v>399</v>
+        <v>830</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>316</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>400</v>
+        <v>317</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>401</v>
+        <v>318</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>402</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="335.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>403</v>
+        <v>320</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>405</v>
+        <v>322</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>406</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>407</v>
+        <v>324</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>408</v>
+        <v>325</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>409</v>
+        <v>326</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>914</v>
+        <v>831</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>410</v>
+        <v>327</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>915</v>
+        <v>832</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>411</v>
+        <v>328</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>412</v>
+        <v>329</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>413</v>
+        <v>330</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>414</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>415</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>417</v>
+        <v>334</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>418</v>
+        <v>335</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>419</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>420</v>
+        <v>337</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>421</v>
+        <v>338</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>422</v>
+        <v>339</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>917</v>
+        <v>834</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>423</v>
+        <v>340</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>916</v>
+        <v>833</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>424</v>
+        <v>341</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>426</v>
+        <v>343</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>427</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>415</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>428</v>
+        <v>345</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>417</v>
+        <v>334</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>418</v>
+        <v>335</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>430</v>
+        <v>347</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>431</v>
+        <v>348</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>432</v>
+        <v>349</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>918</v>
+        <v>835</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>433</v>
+        <v>350</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>919</v>
+        <v>836</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>434</v>
+        <v>351</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>435</v>
+        <v>352</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>415</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>436</v>
+        <v>353</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>437</v>
+        <v>354</v>
       </c>
       <c r="F7" s="11">
         <v>3.6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>438</v>
+        <v>355</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>439</v>
+        <v>356</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>920</v>
+        <v>837</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>440</v>
+        <v>357</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>921</v>
+        <v>838</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>441</v>
+        <v>358</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>442</v>
+        <v>359</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>443</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>444</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="291.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>445</v>
+        <v>362</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="F8" s="11">
         <v>3.6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>447</v>
+        <v>364</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>448</v>
+        <v>365</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>925</v>
+        <v>842</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>449</v>
+        <v>366</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>926</v>
+        <v>843</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>451</v>
+        <v>368</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>452</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>444</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>453</v>
+        <v>370</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="F9" s="11">
         <v>3.6</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>454</v>
+        <v>371</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>455</v>
+        <v>372</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>923</v>
+        <v>840</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>922</v>
+        <v>839</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>924</v>
+        <v>841</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>457</v>
+        <v>374</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>458</v>
+        <v>375</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>444</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -11270,246 +10401,246 @@
       <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>338</v>
+        <v>255</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>342</v>
+        <v>259</v>
       </c>
       <c r="F2" s="5">
         <v>2.4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>343</v>
+        <v>260</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>344</v>
+        <v>261</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>932</v>
+        <v>849</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>345</v>
+        <v>262</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>933</v>
+        <v>850</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>346</v>
+        <v>263</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>347</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>348</v>
+        <v>265</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>349</v>
+        <v>266</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>342</v>
+        <v>259</v>
       </c>
       <c r="F3" s="5">
         <v>6.3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>351</v>
+        <v>268</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>352</v>
+        <v>269</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>353</v>
+        <v>270</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>355</v>
+        <v>272</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>356</v>
+        <v>273</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>357</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>359</v>
+        <v>276</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>360</v>
+        <v>277</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>361</v>
+        <v>278</v>
       </c>
       <c r="F4" s="5">
         <v>2.4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>362</v>
+        <v>279</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>363</v>
+        <v>280</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>934</v>
+        <v>851</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>364</v>
+        <v>281</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>935</v>
+        <v>852</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>366</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>367</v>
+        <v>284</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>368</v>
+        <v>285</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>369</v>
+        <v>286</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>371</v>
+        <v>288</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>931</v>
+        <v>848</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>930</v>
+        <v>847</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>993</v>
+        <v>910</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>372</v>
+        <v>289</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>373</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>374</v>
+        <v>291</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>349</v>
+        <v>266</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="F6" s="5">
         <v>6.3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>376</v>
+        <v>293</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="J6" s="65" t="s">
-        <v>927</v>
+        <v>845</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>844</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>929</v>
+        <v>846</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>378</v>
+        <v>295</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>366</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -11560,331 +10691,331 @@
       <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="12" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>459</v>
+        <v>376</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>461</v>
+        <v>378</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>462</v>
+        <v>379</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>463</v>
+        <v>380</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>465</v>
+        <v>382</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>466</v>
+        <v>383</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>948</v>
+        <v>865</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>947</v>
+        <v>864</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>949</v>
+        <v>866</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>468</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="12" customFormat="1" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>469</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>470</v>
+        <v>387</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>462</v>
+        <v>379</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>463</v>
+        <v>380</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>471</v>
+        <v>388</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>473</v>
+        <v>390</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>945</v>
+        <v>862</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>944</v>
+        <v>861</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>946</v>
+        <v>863</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>468</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="12" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>475</v>
+        <v>392</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>476</v>
+        <v>393</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>477</v>
+        <v>394</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>463</v>
+        <v>380</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>478</v>
+        <v>395</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>479</v>
+        <v>396</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>480</v>
+        <v>397</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>943</v>
+        <v>860</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>481</v>
+        <v>398</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>941</v>
+        <v>858</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>468</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="12" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>484</v>
+        <v>401</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>485</v>
+        <v>402</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>463</v>
+        <v>380</v>
       </c>
       <c r="F5" s="2">
         <v>10.8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>486</v>
+        <v>403</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>487</v>
+        <v>404</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>942</v>
+        <v>859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>848</v>
+        <v>765</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>940</v>
+        <v>857</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>488</v>
+        <v>405</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>489</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="12" customFormat="1" ht="249.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>490</v>
+        <v>407</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>491</v>
+        <v>408</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>492</v>
+        <v>409</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>463</v>
+        <v>380</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>493</v>
+        <v>410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>494</v>
+        <v>411</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>938</v>
+        <v>855</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>495</v>
+        <v>412</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>939</v>
+        <v>856</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>496</v>
+        <v>413</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>497</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="12" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>498</v>
+        <v>415</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>499</v>
+        <v>416</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>501</v>
+        <v>418</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>502</v>
+        <v>419</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>503</v>
+        <v>420</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>504</v>
+        <v>421</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>937</v>
+        <v>854</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>505</v>
+        <v>422</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>506</v>
+        <v>423</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>507</v>
+        <v>424</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>508</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="12" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>509</v>
+        <v>426</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>510</v>
+        <v>427</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>511</v>
+        <v>428</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>512</v>
+        <v>429</v>
       </c>
       <c r="F8" s="2">
         <v>10.4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>513</v>
+        <v>430</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>514</v>
+        <v>431</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>515</v>
+        <v>432</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>516</v>
+        <v>433</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>936</v>
+        <v>853</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>517</v>
+        <v>434</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>518</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -11908,7 +11039,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="20" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="49" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="27.44140625" style="20" customWidth="1"/>
@@ -11927,7 +11058,7 @@
       <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="23" t="s">
@@ -11952,7 +11083,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="K1" s="23" t="s">
         <v>23</v>
@@ -11961,294 +11092,294 @@
         <v>15</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>519</v>
+        <v>436</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>520</v>
+        <v>437</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>521</v>
+        <v>438</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>523</v>
+        <v>439</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>440</v>
       </c>
       <c r="F2" s="19">
         <v>10.8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>524</v>
+        <v>441</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>525</v>
+        <v>442</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>950</v>
+        <v>867</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>526</v>
+        <v>443</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>951</v>
+        <v>868</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>527</v>
+        <v>444</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>528</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>529</v>
+        <v>446</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>520</v>
+        <v>437</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>530</v>
+        <v>447</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>532</v>
+        <v>448</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>449</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>533</v>
+        <v>450</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>534</v>
+        <v>451</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="I3" s="67" t="s">
-        <v>536</v>
+        <v>452</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>453</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>537</v>
+        <v>454</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>952</v>
+        <v>869</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>538</v>
+        <v>455</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>539</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="20" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>540</v>
+        <v>457</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>520</v>
+        <v>437</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>541</v>
+        <v>458</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>543</v>
+        <v>459</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>460</v>
       </c>
       <c r="F4" s="19">
         <v>10.8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>544</v>
+        <v>461</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>545</v>
+        <v>462</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>546</v>
+        <v>463</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>547</v>
+        <v>464</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>953</v>
+        <v>870</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>548</v>
+        <v>465</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>528</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="20" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>549</v>
+        <v>466</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>520</v>
+        <v>437</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>550</v>
+        <v>94</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>467</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>533</v>
+        <v>450</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>551</v>
+        <v>468</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>552</v>
+        <v>469</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>959</v>
+        <v>876</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>553</v>
+        <v>470</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>960</v>
+        <v>877</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>528</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="20" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>555</v>
+        <v>472</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>520</v>
+        <v>437</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>541</v>
+        <v>458</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>550</v>
+        <v>473</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>467</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>533</v>
+        <v>450</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>557</v>
+        <v>474</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>558</v>
+        <v>475</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>992</v>
+        <v>909</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>954</v>
+        <v>871</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>559</v>
+        <v>476</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>560</v>
+        <v>477</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>528</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="20" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>561</v>
+        <v>478</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>520</v>
+        <v>437</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>562</v>
+        <v>94</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>479</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>533</v>
+        <v>450</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>563</v>
+        <v>480</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>564</v>
+        <v>481</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>955</v>
+        <v>872</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>565</v>
+        <v>482</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>958</v>
+        <v>875</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>566</v>
+        <v>483</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>528</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="178.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>567</v>
+        <v>484</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>520</v>
+        <v>437</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>568</v>
+        <v>485</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>569</v>
+        <v>486</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>533</v>
+        <v>450</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>570</v>
+        <v>487</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>571</v>
+        <v>488</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>956</v>
+        <v>873</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>572</v>
+        <v>489</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>957</v>
+        <v>874</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>573</v>
+        <v>490</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>528</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -12287,332 +11418,332 @@
     <col min="14" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" s="58" t="s">
+      <c r="J1" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="38" t="s">
-        <v>34</v>
+      <c r="M1" s="35" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>574</v>
+        <v>491</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>575</v>
+        <v>492</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>576</v>
+        <v>493</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>577</v>
+        <v>494</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>578</v>
+        <v>495</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>579</v>
+        <v>496</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>580</v>
+        <v>497</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>581</v>
+        <v>498</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>961</v>
+        <v>878</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>582</v>
+        <v>499</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>962</v>
+        <v>879</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>584</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="205.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>585</v>
+        <v>502</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>575</v>
+        <v>492</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>586</v>
+        <v>503</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>577</v>
+        <v>494</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>578</v>
+        <v>495</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>587</v>
+        <v>504</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>588</v>
+        <v>505</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>589</v>
+        <v>506</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="J3" s="65" t="s">
-        <v>590</v>
+        <v>880</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>507</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>964</v>
+        <v>881</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>591</v>
+        <v>508</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>584</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>592</v>
+        <v>509</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>575</v>
+        <v>492</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>593</v>
+        <v>510</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>594</v>
+        <v>511</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>578</v>
+        <v>495</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>595</v>
+        <v>512</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>596</v>
+        <v>513</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>597</v>
+        <v>514</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>965</v>
+        <v>882</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>598</v>
+        <v>515</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>599</v>
+        <v>516</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>600</v>
+        <v>517</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>584</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>601</v>
+        <v>518</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>575</v>
+        <v>492</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>586</v>
+        <v>503</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>594</v>
+        <v>511</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>578</v>
+        <v>495</v>
       </c>
       <c r="F5" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>602</v>
+        <v>519</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>603</v>
+        <v>520</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>966</v>
+        <v>883</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>990</v>
+        <v>907</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>991</v>
+        <v>908</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>604</v>
+        <v>521</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>584</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>605</v>
+        <v>522</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>575</v>
+        <v>492</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>606</v>
+        <v>523</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>607</v>
+        <v>524</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>608</v>
+        <v>525</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>609</v>
+        <v>526</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>610</v>
+        <v>527</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>611</v>
+        <v>528</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>612</v>
+        <v>529</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>613</v>
+        <v>530</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>967</v>
+        <v>884</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>614</v>
+        <v>531</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>584</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="232.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>615</v>
+        <v>532</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>575</v>
+        <v>492</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>616</v>
+        <v>533</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>617</v>
+        <v>534</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>618</v>
+        <v>535</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>619</v>
+        <v>536</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>620</v>
+        <v>537</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>621</v>
+        <v>538</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>846</v>
+        <v>763</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>622</v>
+        <v>539</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>847</v>
+        <v>764</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>623</v>
+        <v>540</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>584</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>624</v>
+        <v>541</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>575</v>
+        <v>492</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>625</v>
+        <v>542</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>626</v>
+        <v>543</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>627</v>
+        <v>544</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>628</v>
+        <v>545</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>629</v>
+        <v>546</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>630</v>
+        <v>547</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>631</v>
+        <v>548</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>632</v>
+        <v>549</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>633</v>
+        <v>550</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>634</v>
+        <v>551</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>584</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -12622,19 +11753,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7385881-037e-4b91-bb29-d3b325010731">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007C1E3484E1B71F4D99B2BD68D6237139" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f05dcfc413c1a45ea7464dcf13870a9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f7385881-037e-4b91-bb29-d3b325010731" xmlns:ns3="31336433-bca3-4ae1-849c-abc5b15f638f" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a0d26df6adf7959c3170cbb53aeaa6" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12875,6 +11993,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7385881-037e-4b91-bb29-d3b325010731">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12885,18 +12016,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0E37C4-1EEA-4BE9-ADC7-FC5801053B93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="f7385881-037e-4b91-bb29-d3b325010731"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3D2014-BCB7-4C66-9627-CA383FCAC2D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12917,6 +12036,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0E37C4-1EEA-4BE9-ADC7-FC5801053B93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f7385881-037e-4b91-bb29-d3b325010731"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96053E57-8459-4FD6-8F54-99848539D806}">
   <ds:schemaRefs>

--- a/Microsoft Cloud Security Benchmark/Microsoft_cloud_security_benchmark_v1.xlsx
+++ b/Microsoft Cloud Security Benchmark/Microsoft_cloud_security_benchmark_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/chcheng1_microsoft_com/Documents/Multi-cloud/MCSB_v1_GA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1364" documentId="8_{68EA57A1-B688-4A17-B399-03A3CD93963D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DB88E6B-BAA5-45C6-B316-221BCA81D4C2}"/>
+  <xr:revisionPtr revIDLastSave="1366" documentId="8_{68EA57A1-B688-4A17-B399-03A3CD93963D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E996F4FA-F705-4A20-B8A0-34EA1048C711}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" tabRatio="786" xr2:uid="{30BFAFB3-652A-4F32-916F-A5B0C74C3635}"/>
   </bookViews>
@@ -1221,12 +1221,6 @@
     <t xml:space="preserve">Secured, isolated workstations are critically important for the security of sensitive roles like administrator, developer, and critical service operator.  </t>
   </si>
   <si>
-    <t>Understand privileged access workstations: 
-https://docs.microsoft.com/azure/active-directory/devices/concept-azure-managed-workstation
-Privileged access workstations deployment: 
-https://docs.microsoft.com/security/compass/privileged-access-deploymenthttps</t>
-  </si>
-  <si>
     <t>Use Session Manager in AWS Systems Manager to create an access path (a connection session) to the EC2 instance or a browser session to the AWS resources for privileged tasks. Session Manager allows RDP, SSH, and HTTPS connectivity to your destination hosts through port forwarding. 
 You may also choose to deploy a privileged access workstations (PAW) centrally managed through Azure Active Directory, Microsoft Defender, and/or Microsoft Intune. The central management should enforce secured configuration, including strong authentication, software and hardware baselines, and restricted logical and network access.</t>
   </si>
@@ -1821,12 +1815,6 @@
 https://docs.microsoft.com/azure/security/fundamentals/encryption-models
 Services that support encryption using customer-managed key: https://docs.microsoft.com/azure/security/fundamentals/encryption-models#supporting-services
 How to configure customer managed encryption keys in Azure Storage: https://docs.microsoft.com/azure/storage/common/storage-encryption-keys-portal</t>
-  </si>
-  <si>
-    <t>AWS Services Integrated with AWS KMS:
-https://aws.amazon.com/kms/features/
-AWS-managed and Customer-managed CMKs:
-https://docs.aws.amazon.com/whitepapers/latest/kms-best-practices/aws-managed-and-customer-managed-cmks.html</t>
   </si>
   <si>
     <t>SQL managed instances should use customer-managed keys to encrypt data at rest
@@ -6269,6 +6257,18 @@
       </rPr>
       <t xml:space="preserve">ntials, or service-linked roles to have a fine-grain control access control for your resources. </t>
     </r>
+  </si>
+  <si>
+    <t>AWS Services Integrated with AWS KMS:
+https://aws.amazon.com/kms/features/
+AWS-managed and Customer-managed CMKs:
+https://docs.aws.amazon.com/kms/latest/developerguide/concepts.html#key-mgmt</t>
+  </si>
+  <si>
+    <t>Understand privileged access workstations: 
+https://learn.microsoft.com/en-us/security/privileged-access-workstations/overview
+Privileged access workstations deployment: 
+https://docs.microsoft.com/security/compass/privileged-access-deploymenthttps</t>
   </si>
 </sst>
 </file>
@@ -6849,6 +6849,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7171,14 +7175,14 @@
     <row r="2" spans="1:4" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="B2" s="61" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:4" ht="118.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3" s="63" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C3" s="64"/>
     </row>
@@ -7375,125 +7379,125 @@
     </row>
     <row r="2" spans="1:13" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>556</v>
       </c>
       <c r="F2" s="5">
         <v>11.5</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>560</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="221.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>565</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F3" s="5">
         <v>5.0999999999999996</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>569</v>
-      </c>
       <c r="M3" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>578</v>
-      </c>
       <c r="M4" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -7575,166 +7579,166 @@
     </row>
     <row r="2" spans="1:13" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="18" t="s">
         <v>581</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>583</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="M2" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="18" t="s">
         <v>590</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>592</v>
       </c>
       <c r="F3" s="2">
         <v>3.4</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="231.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="L4" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>603</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="18" t="s">
         <v>607</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>609</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>891</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="M5" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>891</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -7800,13 +7804,13 @@
         <v>22</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K1" s="24" t="s">
         <v>23</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="M1" s="24" t="s">
         <v>27</v>
@@ -7814,81 +7818,81 @@
     </row>
     <row r="2" spans="1:13" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="361.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>633</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>895</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>635</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>178</v>
@@ -7896,81 +7900,81 @@
     </row>
     <row r="4" spans="1:13" ht="378" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="M4" s="5" t="s">
         <v>643</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="211.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>651</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>653</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>178</v>
@@ -7978,40 +7982,40 @@
     </row>
     <row r="6" spans="1:13" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="K6" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>656</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>901</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>658</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>178</v>
@@ -8019,84 +8023,84 @@
     </row>
     <row r="7" spans="1:13" ht="310.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="I7" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="M7" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="M8" s="5" t="s">
         <v>674</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -8160,7 +8164,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>109</v>
@@ -8171,360 +8175,360 @@
     </row>
     <row r="2" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="F2" s="12">
         <v>12.4</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>131</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="9" t="s">
         <v>690</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>692</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>131</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>700</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>131</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="9" t="s">
         <v>706</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>708</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>131</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="9" t="s">
         <v>713</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>715</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>131</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="9" t="s">
         <v>720</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>722</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>131</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="330.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>730</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>131</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="288" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>735</v>
       </c>
       <c r="F9" s="12">
         <v>3.4</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>131</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="9" t="s">
         <v>742</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>744</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>131</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="9" t="s">
         <v>750</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>752</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>131</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>94</v>
@@ -8539,19 +8543,19 @@
         <v>94</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>131</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -8565,7 +8569,7 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8657,10 +8661,10 @@
         <v>35</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K2" s="57" t="s">
         <v>36</v>
@@ -8698,13 +8702,13 @@
         <v>44</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>45</v>
@@ -8739,13 +8743,13 @@
         <v>52</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>53</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>54</v>
@@ -8780,13 +8784,13 @@
         <v>61</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>62</v>
@@ -8821,13 +8825,13 @@
         <v>69</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>70</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>71</v>
@@ -8862,13 +8866,13 @@
         <v>76</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>78</v>
@@ -8903,13 +8907,13 @@
         <v>83</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>84</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>85</v>
@@ -8944,13 +8948,13 @@
         <v>90</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>91</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>92</v>
@@ -8985,13 +8989,13 @@
         <v>98</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>99</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>100</v>
@@ -9026,13 +9030,13 @@
         <v>106</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>107</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>108</v>
@@ -9143,13 +9147,13 @@
         <v>117</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>118</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>119</v>
@@ -9184,13 +9188,13 @@
         <v>127</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>790</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>791</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>792</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>128</v>
@@ -9225,13 +9229,13 @@
         <v>133</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>134</v>
@@ -9266,13 +9270,13 @@
         <v>139</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>140</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>141</v>
@@ -9307,13 +9311,13 @@
         <v>147</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>148</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>149</v>
@@ -9348,13 +9352,13 @@
         <v>157</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>158</v>
       </c>
       <c r="K7" s="55" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>159</v>
@@ -9389,13 +9393,13 @@
         <v>165</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>166</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>167</v>
@@ -9430,13 +9434,13 @@
         <v>175</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>176</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>177</v>
@@ -9471,13 +9475,13 @@
         <v>184</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>806</v>
-      </c>
       <c r="K10" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>185</v>
@@ -9500,9 +9504,9 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J2" sqref="J2"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9589,13 +9593,13 @@
         <v>194</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>195</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>196</v>
@@ -9633,10 +9637,10 @@
         <v>202</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>203</v>
@@ -9671,13 +9675,13 @@
         <v>210</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>808</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>810</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>211</v>
@@ -9712,13 +9716,13 @@
         <v>218</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>220</v>
@@ -9753,13 +9757,13 @@
         <v>223</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>225</v>
@@ -9794,65 +9798,65 @@
         <v>232</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="L7" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>188</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="20" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>188</v>
@@ -9864,31 +9868,31 @@
         <v>206</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -9908,7 +9912,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J2" sqref="J2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9971,7 +9975,7 @@
         <v>24</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N1" s="28" t="s">
         <v>25</v>
@@ -9980,7 +9984,7 @@
         <v>26</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q1" s="24" t="s">
         <v>27</v>
@@ -9988,245 +9992,245 @@
     </row>
     <row r="2" spans="1:17" ht="286.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="O2" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="K3" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="K3" s="59" t="s">
+      <c r="L3" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="O3" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="Q3" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="335.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="O5" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="P5" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>344</v>
-      </c>
       <c r="Q5" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>352</v>
-      </c>
       <c r="Q6" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>94</v>
@@ -10235,45 +10239,45 @@
         <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F7" s="11">
         <v>3.6</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="K7" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>837</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="M7" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>838</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="O7" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="291.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>94</v>
@@ -10282,45 +10286,45 @@
         <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F8" s="11">
         <v>3.6</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="K8" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>842</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="M8" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="O8" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>369</v>
-      </c>
       <c r="Q8" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>94</v>
@@ -10329,37 +10333,37 @@
         <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F9" s="11">
         <v>3.6</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="M9" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>840</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>841</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="O9" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>375</v>
-      </c>
       <c r="Q9" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -10440,207 +10444,207 @@
     </row>
     <row r="2" spans="1:13" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="F2" s="5">
         <v>2.4</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F3" s="5">
         <v>6.3</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="F4" s="5">
         <v>2.4</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>94</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="F6" s="5">
         <v>6.3</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>842</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>844</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>295</v>
-      </c>
       <c r="M6" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -10733,289 +10737,289 @@
     </row>
     <row r="2" spans="1:14" s="12" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="12" customFormat="1" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="12" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="12" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F5" s="2">
         <v>10.8</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="12" customFormat="1" ht="249.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="12" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="L7" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="12" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="F8" s="2">
         <v>10.4</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -11097,133 +11101,133 @@
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="52" t="s">
         <v>438</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>440</v>
       </c>
       <c r="F2" s="19">
         <v>10.8</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="52" t="s">
         <v>447</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="G3" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="58" t="s">
         <v>451</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="K3" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="20" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="52" t="s">
         <v>458</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>460</v>
       </c>
       <c r="F4" s="19">
         <v>10.8</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="20" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>94</v>
@@ -11232,80 +11236,80 @@
         <v>94</v>
       </c>
       <c r="E5" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="20" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>467</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>477</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="20" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>94</v>
@@ -11314,72 +11318,72 @@
         <v>94</v>
       </c>
       <c r="E7" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="178.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>490</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -11461,289 +11465,289 @@
     </row>
     <row r="2" spans="1:13" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="205.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="J3" s="56" t="s">
         <v>505</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>507</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>508</v>
-      </c>
       <c r="M3" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="L4" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>517</v>
-      </c>
       <c r="M4" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F5" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>907</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>521</v>
-      </c>
       <c r="M5" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>531</v>
-      </c>
       <c r="M6" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="232.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="K7" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>540</v>
-      </c>
       <c r="M7" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="L8" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>551</v>
-      </c>
       <c r="M8" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -11753,6 +11757,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7385881-037e-4b91-bb29-d3b325010731">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007C1E3484E1B71F4D99B2BD68D6237139" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f05dcfc413c1a45ea7464dcf13870a9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f7385881-037e-4b91-bb29-d3b325010731" xmlns:ns3="31336433-bca3-4ae1-849c-abc5b15f638f" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a0d26df6adf7959c3170cbb53aeaa6" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11993,19 +12010,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7385881-037e-4b91-bb29-d3b325010731">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12016,6 +12020,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0E37C4-1EEA-4BE9-ADC7-FC5801053B93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f7385881-037e-4b91-bb29-d3b325010731"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3D2014-BCB7-4C66-9627-CA383FCAC2D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12036,18 +12052,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0E37C4-1EEA-4BE9-ADC7-FC5801053B93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="f7385881-037e-4b91-bb29-d3b325010731"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96053E57-8459-4FD6-8F54-99848539D806}">
   <ds:schemaRefs>
